--- a/data/boardgames_bgg_ids.xlsx
+++ b/data/boardgames_bgg_ids.xlsx
@@ -1038,391 +1038,391 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Betrayal Legacy</t>
+          <t>Beyond the Sun</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>240196</v>
+        <v>317985</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Beyond the Sun</t>
+          <t>Bios: Genesis</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>317985</v>
+        <v>98918</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Bios: Genesis</t>
+          <t>Bios: Megafauna (Second Edition)</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>98918</v>
+        <v>221769</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Bios: Megafauna (Second Edition)</t>
+          <t>Black Angel</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>221769</v>
+        <v>230244</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Black Angel</t>
+          <t>Black Fleet</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>230244</v>
+        <v>157403</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Black Fleet</t>
+          <t>Blitzkrieg!: World War Two in 20 Minutes</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>157403</v>
+        <v>258210</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Blitzkrieg!: World War Two in 20 Minutes</t>
+          <t>Blood Rage</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>258210</v>
+        <v>170216</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Blood Rage</t>
+          <t>Books of Time</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>170216</v>
+        <v>372631</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Books of Time</t>
+          <t>Bosk</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>372631</v>
+        <v>252556</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Bosk</t>
+          <t>Brick &amp; Mortar</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>252556</v>
+        <v>257435</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Brick &amp; Mortar</t>
+          <t>Bumúntú</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>257435</v>
+        <v>201006</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Bumúntú</t>
+          <t>Bunny Kingdom</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>201006</v>
+        <v>184921</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Bunny Kingdom</t>
+          <t>Burgle Bros.</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>184921</v>
+        <v>172081</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Burgle Bros.</t>
+          <t>Bärenpark</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>172081</v>
+        <v>219513</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Bärenpark</t>
+          <t>Cacao: Diamante</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>219513</v>
+        <v>231967</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Cacao: Diamante</t>
+          <t>Caesar!: Seize Rome in 20 Minutes!</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>231967</v>
+        <v>338957</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Caesar!: Seize Rome in 20 Minutes!</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>338957</v>
+        <v>284936</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Call to Adventure</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>284936</v>
+        <v>238992</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Call to Adventure</t>
+          <t>Campy Creatures</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>238992</v>
+        <v>214396</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Campy Creatures</t>
+          <t>Canopy</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>214396</v>
+        <v>295607</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Canopy</t>
+          <t>Canvas</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>295607</v>
+        <v>290236</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Canvas</t>
+          <t>Cape May</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>290236</v>
+        <v>281248</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Cape May</t>
+          <t>Caper: Europe</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>281248</v>
+        <v>328565</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Caper: Europe</t>
+          <t>Captain Sonar: Operation Dragon</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>328565</v>
+        <v>270444</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Captain Sonar: Operation Dragon</t>
+          <t>Captain Sonar: Upgrade One</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>270444</v>
+        <v>218178</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Captain Sonar: Upgrade One</t>
+          <t>Carnival Zombie: 2nd Edition</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>218178</v>
+        <v>275802</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Carnival Zombie: 2nd Edition</t>
+          <t>Carson City</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>275802</v>
+        <v>39938</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Carson City</t>
+          <t>Cartographers</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>39938</v>
+        <v>263918</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Cartographers</t>
+          <t>Cat in the Box: Deluxe Edition</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>263918</v>
+        <v>345972</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Cat in the Box: Deluxe Edition</t>
+          <t>Catacombs &amp; Castles</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>345972</v>
+        <v>194286</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Catacombs &amp; Castles</t>
+          <t>Catacombs (Third Edition)</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>194286</v>
+        <v>195137</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Catacombs (Third Edition)</t>
+          <t>Caylus 1303</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>195137</v>
+        <v>284818</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Caylus 1303</t>
+          <t>Cellulose: A Plant Cell Biology Game</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>284818</v>
+        <v>333372</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Cellulose: A Plant Cell Biology Game</t>
+          <t>Century: Golem Edition</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>333372</v>
+        <v>232832</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Century: Golem Edition</t>
+          <t>Chai</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>232832</v>
+        <v>253185</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Chai</t>
+          <t>Champions of Midgard</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>253185</v>
+        <v>172287</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Champions of Midgard</t>
+          <t>Charterstone</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>172287</v>
+        <v>197376</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Charterstone</t>
+          <t>Chocolate Factory</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>197376</v>
+        <v>240567</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Chocolate Factory</t>
+          <t>Chocolate Factory: Deluxe Edition</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>240567</v>
+        <v>329434</v>
       </c>
     </row>
     <row r="100">

--- a/data/boardgames_bgg_ids.xlsx
+++ b/data/boardgames_bgg_ids.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B572"/>
+  <dimension ref="A1:B571"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>258210</v>
+        <v>347521</v>
       </c>
     </row>
     <row r="67">
@@ -3298,2860 +3298,2850 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Last Will</t>
+          <t>Level 7 [Omega Protocol]</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>97842</v>
+        <v>137649</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Level 7 [Omega Protocol]</t>
+          <t>Libertalia: Winds of Galecrest</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>137649</v>
+        <v>356033</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Libertalia: Winds of Galecrest</t>
+          <t>Life of the Amazonia</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>356033</v>
+        <v>368305</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Life of the Amazonia</t>
+          <t>Lighthouse Run</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>368305</v>
+        <v>158971</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Lighthouse Run</t>
+          <t>Llamaland</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>158971</v>
+        <v>330038</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Llamaland</t>
+          <t>Lockup: A Roll Player Tale</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>330038</v>
+        <v>240855</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Lockup: A Roll Player Tale</t>
+          <t>Long Shot: The Dice Game</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>240855</v>
+        <v>295374</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Long Shot: The Dice Game</t>
+          <t>Loony Quest: The Lost City</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>295374</v>
+        <v>191302</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Loony Quest: The Lost City</t>
+          <t>Lord of the Rings: The Confrontation</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>191302</v>
+        <v>18833</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Lord of the Rings: The Confrontation</t>
+          <t>Lost Cities</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>18833</v>
+        <v>50</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Lost Cities</t>
+          <t>Lost Legends</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>50</v>
+        <v>131891</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Lost Legends</t>
+          <t>Lost Ruins of Arnak: The Missing Expedition</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>131891</v>
+        <v>382350</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Lost Ruins of Arnak: The Missing Expedition</t>
+          <t>Magic Fold</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>382350</v>
+        <v>259551</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Magic Fold</t>
+          <t>Maglev Metro</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>259551</v>
+        <v>301257</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Maglev Metro</t>
+          <t>Majolica</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>301257</v>
+        <v>258041</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Majolica</t>
+          <t>Manhattan</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>258041</v>
+        <v>199</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Manhattan</t>
+          <t>Mansions of Madness: Second Edition – Beyond the Threshold: Expansion</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>199</v>
+        <v>210674</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Mansions of Madness: Second Edition – Beyond the Threshold: Expansion</t>
+          <t>Mansions of Madness: Second Edition – Recurring Nightmares: Figure and Tile Collection</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>210674</v>
+        <v>206547</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Mansions of Madness: Second Edition – Recurring Nightmares: Figure and Tile Collection</t>
+          <t>Mansions of Madness: Second Edition – Suppressed Memories: Figure and Tile Collection</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>206547</v>
+        <v>206548</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Mansions of Madness: Second Edition – Suppressed Memories: Figure and Tile Collection</t>
+          <t>Maracaibo</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>206548</v>
+        <v>276025</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Maracaibo</t>
+          <t>March of the Ants</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>276025</v>
+        <v>156496</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>March of the Ants</t>
+          <t>Mariposas</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>156496</v>
+        <v>297978</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Mariposas</t>
+          <t>Marvel Dice Masters: Age of Ultron – Collector's Box</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>297978</v>
+        <v>185109</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Marvel Dice Masters: Age of Ultron – Collector's Box</t>
+          <t>Marvel Dice Masters: Civil War – Collector's Box</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>185109</v>
+        <v>210876</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Marvel Dice Masters: Civil War – Collector's Box</t>
+          <t>Marvel Dice Masters: The Amazing Spider-man – Collector's Box</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>210876</v>
+        <v>196788</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Marvel Dice Masters: The Amazing Spider-man – Collector's Box</t>
+          <t>Marvel Dice Throne</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>196788</v>
+        <v>348406</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Marvel Dice Throne</t>
+          <t>Marvel United</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>348406</v>
+        <v>298047</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Marvel United</t>
+          <t>Massive Darkness</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>298047</v>
+        <v>197070</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Massive Darkness</t>
+          <t>Massive Darkness 2: Hellscape</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>197070</v>
+        <v>315610</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Massive Darkness 2: Hellscape</t>
+          <t>Meadow</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>315610</v>
+        <v>314491</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Meadow</t>
+          <t>Meeple Circus</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>314491</v>
+        <v>193214</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Meeple Circus</t>
+          <t>Meeple War</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>193214</v>
+        <v>192120</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Meeple War</t>
+          <t>Menara: Rituals &amp; Ruins</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>192120</v>
+        <v>286655</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Menara: Rituals &amp; Ruins</t>
+          <t>Merchant of Venus (Second Edition)</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>286655</v>
+        <v>131646</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Merchant of Venus (Second Edition)</t>
+          <t>Merchants Cove</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>131646</v>
+        <v>277700</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Merchants Cove</t>
+          <t>Merv: The Heart of the Silk Road</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>277700</v>
+        <v>306040</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Merv: The Heart of the Silk Road</t>
+          <t>Mice and Mystics</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>306040</v>
+        <v>124708</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Mice and Mystics</t>
+          <t>Millennium Blades</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>124708</v>
+        <v>151347</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Millennium Blades</t>
+          <t>Minute Realms</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>151347</v>
+        <v>234468</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Minute Realms</t>
+          <t>Mission Control: Critical Orbit</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>234468</v>
+        <v>360121</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Mission Control: Critical Orbit</t>
+          <t>Monumental</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>360121</v>
+        <v>248125</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Monumental</t>
+          <t>Mountain Goats</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>248125</v>
+        <v>63975</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Mountain Goats</t>
+          <t>Mountains of Madness</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>63975</v>
+        <v>214293</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Mountains of Madness</t>
+          <t>Multiuniversum</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>214293</v>
+        <v>192638</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Multiuniversum</t>
+          <t>Museum</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>192638</v>
+        <v>204505</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Museum</t>
+          <t>My Father's Work</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>204505</v>
+        <v>328866</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>My Father's Work</t>
+          <t>Mysterium: Hidden Signs</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>328866</v>
+        <v>192661</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Mysterium: Hidden Signs</t>
+          <t>Mysterium: Secrets &amp; Lies</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>192661</v>
+        <v>216465</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Mysterium: Secrets &amp; Lies</t>
+          <t>Mystery of the Abbey</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>216465</v>
+        <v>915</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Mystery of the Abbey</t>
+          <t>Mystic Vale</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>915</v>
+        <v>194607</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Mystic Vale</t>
+          <t>Mystic Vale: Essential Edition</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>194607</v>
+        <v>308762</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Mystic Vale: Essential Edition</t>
+          <t>Naga Raja</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>308762</v>
+        <v>244191</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Naga Raja</t>
+          <t>Necromolds: Monster Battles</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>244191</v>
+        <v>294986</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Necromolds: Monster Battles</t>
+          <t>Nemesis</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>294986</v>
+        <v>167355</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Nemesis</t>
+          <t>New York Zoo</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>167355</v>
+        <v>300877</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>New York Zoo</t>
+          <t>Next Station: London</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>300877</v>
+        <v>353545</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Next Station: London</t>
+          <t>Nidavellir: Thingvellir</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>353545</v>
+        <v>326984</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Nidavellir: Thingvellir</t>
+          <t>Night Parade of a Hundred Yokai</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>326984</v>
+        <v>314589</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Night Parade of a Hundred Yokai</t>
+          <t>Night of the Ninja</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>314589</v>
+        <v>306321</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Night of the Ninja</t>
+          <t>Ninjato</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>306321</v>
+        <v>50768</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Ninjato</t>
+          <t>Nippon</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>50768</v>
+        <v>154809</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Nippon</t>
+          <t>Notre Dame: 10th Anniversary</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>154809</v>
+        <v>213984</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Notre Dame: 10th Anniversary</t>
+          <t>Nova Roma</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>213984</v>
+        <v>370789</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Nova Roma</t>
+          <t>Now Boarding</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>370789</v>
+        <v>231567</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Now Boarding</t>
+          <t>Nyctophobia</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>231567</v>
+        <v>249505</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Nyctophobia</t>
+          <t>Nyet!</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>249505</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Nyet!</t>
+          <t>O Bom do Videogame</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>1107</v>
+        <v>234432</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>O Bom do Videogame</t>
+          <t>Odin's Ravens (Second Edition)</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>234432</v>
+        <v>192074</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Odin's Ravens (Second Edition)</t>
+          <t>Once Upon a Castle</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>192074</v>
+        <v>244333</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Once Upon a Castle</t>
+          <t>One Key</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>244333</v>
+        <v>263155</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>One Key</t>
+          <t>Orbis</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>263155</v>
+        <v>255507</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Orbis</t>
+          <t>Origins: First Builders</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>255507</v>
+        <v>322588</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Origins: First Builders</t>
+          <t>Otys</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>322588</v>
+        <v>222542</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Otys</t>
+          <t>PARKS</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>222542</v>
+        <v>266524</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>PARKS</t>
+          <t>Pack &amp; Stack</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>266524</v>
+        <v>37120</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Pack &amp; Stack</t>
+          <t>Paleo</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>37120</v>
+        <v>300531</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Paleo</t>
+          <t>Pandemic Legacy: Season 1</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>300531</v>
+        <v>161936</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Pandemic Legacy: Season 1</t>
+          <t>Pandemic Legacy: Season 2</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>161936</v>
+        <v>221107</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Pandemic Legacy: Season 2</t>
+          <t>Pandoria</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>221107</v>
+        <v>248167</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Pandoria</t>
+          <t>Paper Dungeons: A Dungeon Scrawler Game</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>248167</v>
+        <v>291962</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Paper Dungeons: A Dungeon Scrawler Game</t>
+          <t>Paper Tales</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>291962</v>
+        <v>217861</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Paper Tales</t>
+          <t>Papà Paolo</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>217861</v>
+        <v>195867</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Papà Paolo</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>195867</v>
+        <v>282954</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Paris</t>
+          <t>Paris: La Cité de la Lumière</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>282954</v>
+        <v>276498</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Paris: La Cité de la Lumière</t>
+          <t>Patchwork</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>276498</v>
+        <v>163412</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Patchwork</t>
+          <t>Pelican Cove</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>163412</v>
+        <v>90870</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Pelican Cove</t>
+          <t>Pharaon</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>90870</v>
+        <v>282414</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Pharaon</t>
+          <t>Pile-Up Rush</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>282414</v>
+        <v>220707</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Pile-Up Rush</t>
+          <t>Pioneer Rails</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>220707</v>
+        <v>362164</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Pioneer Rails</t>
+          <t>Pirates of the 7 Seas</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>362164</v>
+        <v>172613</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Pirates of the 7 Seas</t>
+          <t>Planet</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>172613</v>
+        <v>252929</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Planet</t>
+          <t>Potion Explosion</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>252929</v>
+        <v>180974</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Potion Explosion</t>
+          <t>Project: ELITE</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>180974</v>
+        <v>256999</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Project: ELITE</t>
+          <t>Prêt-à-Porter</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>256999</v>
+        <v>87890</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Prêt-à-Porter</t>
+          <t>Pyramid Poker</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>87890</v>
+        <v>213953</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Pyramid Poker</t>
+          <t>QE</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>213953</v>
+        <v>266830</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>QE</t>
+          <t>Quantum</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>266830</v>
+        <v>143519</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Quantum</t>
+          <t>Queen's Necklace</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>143519</v>
+        <v>6068</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Queen's Necklace</t>
+          <t>Quodd Heroes</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>6068</v>
+        <v>207991</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Quodd Heroes</t>
+          <t>Radlands</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>207991</v>
+        <v>329082</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Radlands</t>
+          <t>Raiatea</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>329082</v>
+        <v>256728</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Raiatea</t>
+          <t>Raiders of Scythia</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>256728</v>
+        <v>301880</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Raiders of Scythia</t>
+          <t>Raiders of the North Sea</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>301880</v>
+        <v>170042</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Raiders of the North Sea</t>
+          <t>Raids</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>170042</v>
+        <v>234429</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Raids</t>
+          <t>Raptor</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>234429</v>
+        <v>177639</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Raptor</t>
+          <t>Ready Set Bet</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>177639</v>
+        <v>351040</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Ready Set Bet</t>
+          <t>Realm of Sand</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>351040</v>
+        <v>256623</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Realm of Sand</t>
+          <t>Rear Window</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>256623</v>
+        <v>358816</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Rear Window</t>
+          <t>Res Arcana: Perlae Imperii</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>358816</v>
+        <v>340375</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Res Arcana: Perlae Imperii</t>
+          <t>Return to Dark Tower</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>340375</v>
+        <v>256680</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Return to Dark Tower</t>
+          <t>Riftforce</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>256680</v>
+        <v>291859</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>Riftforce</t>
+          <t>Rivals for Catan</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>291859</v>
+        <v>66056</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Rivals for Catan</t>
+          <t>Roar: King of the Pride</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>66056</v>
+        <v>237229</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>Roar: King of the Pride</t>
+          <t>Robin of Locksley</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>237229</v>
+        <v>280132</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>Robin of Locksley</t>
+          <t>Robot Quest Arena</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>280132</v>
+        <v>304668</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>Robot Quest Arena</t>
+          <t>Rococo: Jewelry Box</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>304668</v>
+        <v>176990</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>Rococo: Jewelry Box</t>
+          <t>Roll Player: Fiends &amp; Familiars</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>176990</v>
+        <v>255601</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Roll Player: Fiends &amp; Familiars</t>
+          <t>Roll Through the Ages: The Bronze Age</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>255601</v>
+        <v>37380</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>Roll Through the Ages: The Bronze Age</t>
+          <t>Rome &amp; Roll</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>37380</v>
+        <v>267009</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Rome &amp; Roll</t>
+          <t>Ruination</t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>267009</v>
+        <v>276856</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>Ruination</t>
+          <t>Rum &amp; Bones: Second Tide</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>276856</v>
+        <v>196202</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>Rum &amp; Bones: Second Tide</t>
+          <t>SCOUT</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>196202</v>
+        <v>291453</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>SCOUT</t>
+          <t>Sabika</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>291453</v>
+        <v>360265</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>Sabika</t>
+          <t>Sabotage</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>360265</v>
+        <v>252854</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>Sabotage</t>
+          <t>Sagani</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>252854</v>
+        <v>309105</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>Sagani</t>
+          <t>Sailing Toward Osiris</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>309105</v>
+        <v>224079</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>Sailing Toward Osiris</t>
+          <t>Saint Malo</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>224079</v>
+        <v>117960</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Saint Malo</t>
+          <t>Sanctum</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>117960</v>
+        <v>276830</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>Sanctum</t>
+          <t>Santorini</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>276830</v>
+        <v>194655</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>Santorini</t>
+          <t>Scarface 1920</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>194655</v>
+        <v>324090</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>Scarface 1920</t>
+          <t>Scattergories</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>324090</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>Scattergories</t>
+          <t>Schotten Totten</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>2381</v>
+        <v>372</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Schotten Totten</t>
+          <t>Scythe: The Rise of Fenris</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>372</v>
+        <v>242277</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>Scythe: The Rise of Fenris</t>
+          <t>Seas of Havoc</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>242277</v>
+        <v>343525</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>Seas of Havoc</t>
+          <t>Seasons</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>343525</v>
+        <v>108745</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>Seasons</t>
+          <t>Seastead</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>108745</v>
+        <v>307656</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>Seastead</t>
+          <t>Shakespeare</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>307656</v>
+        <v>180511</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Shakespeare</t>
+          <t>Shards of Infinity</t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>180511</v>
+        <v>244115</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>Shards of Infinity</t>
+          <t>Sheep &amp; Thief</t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>244115</v>
+        <v>167298</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>Sheep &amp; Thief</t>
+          <t>Ship Shape: It's a Smuggler's Bounty!</t>
         </is>
       </c>
       <c r="B426" t="n">
-        <v>167298</v>
+        <v>255594</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>Ship Shape: It's a Smuggler's Bounty!</t>
+          <t>Silver &amp; Gold Pyramids</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>255594</v>
+        <v>402215</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>Silver &amp; Gold Pyramids</t>
+          <t>Skulk Hollow</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>402215</v>
+        <v>232595</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Skulk Hollow</t>
+          <t>Skymines</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>232595</v>
+        <v>359438</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>Skymines</t>
+          <t>Skyward</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>359438</v>
+        <v>209664</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>Skyward</t>
+          <t>Slide Quest</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>209664</v>
+        <v>271785</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>Slide Quest</t>
+          <t>Small Islands</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>271785</v>
+        <v>236248</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>Small Islands</t>
+          <t>Smiths of Winterforge</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>236248</v>
+        <v>192619</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Smiths of Winterforge</t>
+          <t>Sobek: 2 Players</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>192619</v>
+        <v>332944</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>Sobek: 2 Players</t>
+          <t>Solenia</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>332944</v>
+        <v>254018</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>Solenia</t>
+          <t>Star Realms: Colony Wars</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>254018</v>
+        <v>182631</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>Star Realms: Colony Wars</t>
+          <t>Star Wars: Armada</t>
         </is>
       </c>
       <c r="B437" t="n">
-        <v>182631</v>
+        <v>163745</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>Star Wars: Armada</t>
+          <t>Star Wars: Rebellion</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>163745</v>
+        <v>187645</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Star Wars: Rebellion</t>
+          <t>Steam Time</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>187645</v>
+        <v>180592</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>Steam Time</t>
+          <t>Steam Torpedo: First Contact – To Your Positions!</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>180592</v>
+        <v>125682</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>Steam Torpedo: First Contact – To Your Positions!</t>
+          <t>Stella: Dixit Universe</t>
         </is>
       </c>
       <c r="B441" t="n">
-        <v>125682</v>
+        <v>329845</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>Stella: Dixit Universe</t>
+          <t>Stroganov</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>329845</v>
+        <v>323156</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>Stroganov</t>
+          <t>Sub Terra</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>323156</v>
+        <v>204472</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Sub Terra</t>
+          <t>Summit: The Board Game</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>204472</v>
+        <v>201186</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>Summit: The Board Game</t>
+          <t>Summoner Wars (Second Edition)</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>201186</v>
+        <v>332800</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>Summoner Wars (Second Edition)</t>
+          <t>Sunflower Valley</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>332800</v>
+        <v>228390</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>Sunflower Valley</t>
+          <t>Super Motherload</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>228390</v>
+        <v>162286</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>Super Motherload</t>
+          <t>Super Punch Fighter</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>162286</v>
+        <v>276641</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Super Punch Fighter</t>
+          <t>Sushi Go Party!</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>276641</v>
+        <v>192291</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>Sushi Go Party!</t>
+          <t>Symphony No.9</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>192291</v>
+        <v>244141</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>Symphony No.9</t>
+          <t>Tainted Grail: The Fall of Avalon</t>
         </is>
       </c>
       <c r="B451" t="n">
-        <v>244141</v>
+        <v>264220</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>Tainted Grail: The Fall of Avalon</t>
+          <t>Tales of Glory</t>
         </is>
       </c>
       <c r="B452" t="n">
-        <v>264220</v>
+        <v>246816</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>Tales of Glory</t>
+          <t>Taluva</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>246816</v>
+        <v>24508</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Taluva</t>
+          <t>Tammany Hall</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>24508</v>
+        <v>30645</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>Tammany Hall</t>
+          <t>Tannhäuser</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>30645</v>
+        <v>25261</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>Tannhäuser</t>
+          <t>Tapestry</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>25261</v>
+        <v>286096</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>Tapestry</t>
+          <t>Tenpenny Parks</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>286096</v>
+        <v>294702</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>Tenpenny Parks</t>
+          <t>Teotihuacan: Expansion Period</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>294702</v>
+        <v>316777</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Teotihuacan: Expansion Period</t>
+          <t>Teotihuacan: Shadow of Xitle</t>
         </is>
       </c>
       <c r="B459" t="n">
-        <v>316777</v>
+        <v>293473</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>Teotihuacan: Shadow of Xitle</t>
+          <t>Terraforming Mars</t>
         </is>
       </c>
       <c r="B460" t="n">
-        <v>293473</v>
+        <v>167791</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>Terraforming Mars</t>
+          <t>Terramara</t>
         </is>
       </c>
       <c r="B461" t="n">
-        <v>167791</v>
+        <v>272427</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>Terramara</t>
+          <t>Terror Below</t>
         </is>
       </c>
       <c r="B462" t="n">
-        <v>272427</v>
+        <v>270138</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>Terror Below</t>
+          <t>Terrorscape</t>
         </is>
       </c>
       <c r="B463" t="n">
-        <v>270138</v>
+        <v>371433</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Terrorscape</t>
+          <t>Tesseract</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>371433</v>
+        <v>367385</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>Tesseract</t>
+          <t>The Artemis Project</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>367385</v>
+        <v>254713</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>The Artemis Project</t>
+          <t>The Boldest</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>254713</v>
+        <v>261529</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>The Boldest</t>
+          <t>The Brigade</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>261529</v>
+        <v>213503</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>The Brigade</t>
+          <t>The Captain Is Dead</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>213503</v>
+        <v>159503</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>The Captain Is Dead</t>
+          <t>The Captain Is Dead: Lockdown</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>159503</v>
+        <v>208804</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>The Captain Is Dead: Lockdown</t>
+          <t>The Crusoe Crew</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>208804</v>
+        <v>244274</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>The Crusoe Crew</t>
+          <t>The Downfall of Pompeii</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>244274</v>
+        <v>13004</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>The Downfall of Pompeii</t>
+          <t>The Edge: Dawnfall</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>13004</v>
+        <v>207729</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>The Edge: Dawnfall</t>
+          <t>The Expanse Board Game</t>
         </is>
       </c>
       <c r="B473" t="n">
-        <v>207729</v>
+        <v>220792</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>The Expanse Board Game</t>
+          <t>The Finest Fish</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>220792</v>
+        <v>362587</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>The Finest Fish</t>
+          <t>The Fox Experiment</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>362587</v>
+        <v>368432</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>The Fox Experiment</t>
+          <t>The Grand Carnival</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>368432</v>
+        <v>289081</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>The Grand Carnival</t>
+          <t>The Great Dinosaur Rush</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>289081</v>
+        <v>179071</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>The Great Dinosaur Rush</t>
+          <t>The Great Wall</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>179071</v>
+        <v>292375</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>The Great Wall</t>
+          <t>The Initiative</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>292375</v>
+        <v>328908</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>The Initiative</t>
+          <t>The Key: Murder at the Oakdale Club</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>328908</v>
+        <v>299172</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>The Key: Murder at the Oakdale Club</t>
+          <t>The Key: Sabotage at Lucky Llama Land</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>299172</v>
+        <v>322039</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>The Key: Sabotage at Lucky Llama Land</t>
+          <t>The Key: Theft at Cliffrock Villa</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>322039</v>
+        <v>299171</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>The Key: Theft at Cliffrock Villa</t>
+          <t>The King's Dilemma</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>299171</v>
+        <v>245655</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>The King's Dilemma</t>
+          <t>The King's Guild</t>
         </is>
       </c>
       <c r="B484" t="n">
-        <v>245655</v>
+        <v>206327</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>The King's Guild</t>
+          <t>The Manhattan Project</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>206327</v>
+        <v>63628</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>The Manhattan Project</t>
+          <t>The Menace Among Us</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>63628</v>
+        <v>274405</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>The Menace Among Us</t>
+          <t>The Networks</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>274405</v>
+        <v>72321</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>The Networks</t>
+          <t>The Night Cage</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>72321</v>
+        <v>306709</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>The Night Cage</t>
+          <t>The Pillars of the Earth</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>306709</v>
+        <v>24480</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>The Pillars of the Earth</t>
+          <t>The Plot Thickens: Detective Edition</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>24480</v>
+        <v>210816</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>The Plot Thickens: Detective Edition</t>
+          <t>The Plot Thickens: Romance Edition</t>
         </is>
       </c>
       <c r="B491" t="n">
-        <v>210816</v>
+        <v>210818</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>The Plot Thickens: Romance Edition</t>
+          <t>The Plot Thickens: Sci-Fi Edition</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>210818</v>
+        <v>210817</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>The Plot Thickens: Sci-Fi Edition</t>
+          <t>The Quacks of Quedlinburg</t>
         </is>
       </c>
       <c r="B493" t="n">
-        <v>210817</v>
+        <v>244521</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>The Quacks of Quedlinburg</t>
+          <t>The River</t>
         </is>
       </c>
       <c r="B494" t="n">
-        <v>244521</v>
+        <v>257759</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>The River</t>
+          <t>The Search for Lost Species</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>257759</v>
+        <v>358557</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>The Search for Lost Species</t>
+          <t>The Search for Planet X</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>358557</v>
+        <v>279537</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>The Search for Planet X</t>
+          <t>The Shipwreck Arcana</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>279537</v>
+        <v>220517</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>The Shipwreck Arcana</t>
+          <t>The Specialists</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>220517</v>
+        <v>320992</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>The Specialists</t>
+          <t>The Stygian Society</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>320992</v>
+        <v>204470</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>The Stygian Society</t>
+          <t>The Voyages of Marco Polo: Agents of Venice</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>204470</v>
+        <v>232945</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>The Voyages of Marco Polo: Agents of Venice</t>
+          <t>Thunder &amp; Lightning</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>232945</v>
+        <v>191963</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>Thunder &amp; Lightning</t>
+          <t>Thunder Road: Vendetta</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>191963</v>
+        <v>342070</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>Thunder Road: Vendetta</t>
+          <t>Thunder Road: Vendetta – Maximum Chrome</t>
         </is>
       </c>
       <c r="B503" t="n">
-        <v>342070</v>
+        <v>355997</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Thunder Road: Vendetta – Maximum Chrome</t>
+          <t>Tidal Blades: Heroes of the Reef</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>355997</v>
+        <v>233262</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>Tidal Blades: Heroes of the Reef</t>
+          <t>Timeline Challenge</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>233262</v>
+        <v>173156</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>Timeline Challenge</t>
+          <t>Timeline: Classic</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>173156</v>
+        <v>257284</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>Timeline: Classic</t>
+          <t>Timeline: Discoveries</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>257284</v>
+        <v>99975</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>Timeline: Discoveries</t>
+          <t>Timeline: Events</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>99975</v>
+        <v>113401</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Timeline: Events</t>
+          <t>Timeline: Inventions</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>113401</v>
+        <v>85256</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>Timeline: Inventions</t>
+          <t>Timeline: Music &amp; Cinema</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>85256</v>
+        <v>145189</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>Timeline: Music &amp; Cinema</t>
+          <t>Tintas</t>
         </is>
       </c>
       <c r="B511" t="n">
-        <v>145189</v>
+        <v>207951</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>Tintas</t>
+          <t>Tiny Towns</t>
         </is>
       </c>
       <c r="B512" t="n">
-        <v>207951</v>
+        <v>265736</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>Tiny Towns</t>
+          <t>Tobago</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>265736</v>
+        <v>42215</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Tobago</t>
+          <t>Tomb Trader</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>42215</v>
+        <v>214879</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>Tomb Trader</t>
+          <t>Tonari</t>
         </is>
       </c>
       <c r="B515" t="n">
-        <v>214879</v>
+        <v>273993</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>Tonari</t>
+          <t>Trade on the Tigris</t>
         </is>
       </c>
       <c r="B516" t="n">
-        <v>273993</v>
+        <v>250754</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>Trade on the Tigris</t>
+          <t>Tragedy Looper</t>
         </is>
       </c>
       <c r="B517" t="n">
-        <v>250754</v>
+        <v>148319</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>Tragedy Looper</t>
+          <t>Tragedy Looper: New Tragedies</t>
         </is>
       </c>
       <c r="B518" t="n">
-        <v>148319</v>
+        <v>374266</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Tragedy Looper: New Tragedies</t>
+          <t>Trails</t>
         </is>
       </c>
       <c r="B519" t="n">
-        <v>374266</v>
+        <v>338628</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>Trails</t>
+          <t>Treasure Hunter</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>338628</v>
+        <v>182189</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>Treasure Hunter</t>
+          <t>Treasure Island</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>182189</v>
+        <v>242639</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>Treasure Island</t>
+          <t>Trekking Through History</t>
         </is>
       </c>
       <c r="B522" t="n">
-        <v>242639</v>
+        <v>353288</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>Trekking Through History</t>
+          <t>Trekking the World</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>353288</v>
+        <v>300442</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Trekking the World</t>
+          <t>Triassic Terror</t>
         </is>
       </c>
       <c r="B524" t="n">
-        <v>300442</v>
+        <v>135243</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>Triassic Terror</t>
+          <t>Trickerion: Legends of Illusion</t>
         </is>
       </c>
       <c r="B525" t="n">
-        <v>135243</v>
+        <v>163068</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>Trickerion: Legends of Illusion</t>
+          <t>Tricky Tides</t>
         </is>
       </c>
       <c r="B526" t="n">
-        <v>163068</v>
+        <v>234776</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>Tricky Tides</t>
+          <t>Tsukuyumi: Full Moon Down</t>
         </is>
       </c>
       <c r="B527" t="n">
-        <v>234776</v>
+        <v>185538</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>Tsukuyumi: Full Moon Down</t>
+          <t>Twilight Imperium: Fourth Edition</t>
         </is>
       </c>
       <c r="B528" t="n">
-        <v>185538</v>
+        <v>233078</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>Twilight Imperium: Fourth Edition</t>
+          <t>Twilight Struggle</t>
         </is>
       </c>
       <c r="B529" t="n">
-        <v>233078</v>
+        <v>12333</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>Twilight Struggle</t>
+          <t>U.S. Telegraph</t>
         </is>
       </c>
       <c r="B530" t="n">
-        <v>12333</v>
+        <v>249410</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>U.S. Telegraph</t>
+          <t>Underwater Cities</t>
         </is>
       </c>
       <c r="B531" t="n">
-        <v>249410</v>
+        <v>247763</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>Underwater Cities</t>
+          <t>Unicorn Fever</t>
         </is>
       </c>
       <c r="B532" t="n">
-        <v>247763</v>
+        <v>245658</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>Unicorn Fever</t>
+          <t>Unmatched: Battle of Legends, Volume One</t>
         </is>
       </c>
       <c r="B533" t="n">
-        <v>245658</v>
+        <v>274637</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>Unmatched: Battle of Legends, Volume One</t>
+          <t>Unmatched: Cobble &amp; Fog</t>
         </is>
       </c>
       <c r="B534" t="n">
-        <v>274637</v>
+        <v>294484</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>Unmatched: Cobble &amp; Fog</t>
+          <t>Unsettled</t>
         </is>
       </c>
       <c r="B535" t="n">
-        <v>294484</v>
+        <v>290484</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>Unsettled</t>
+          <t>V-Sabotage</t>
         </is>
       </c>
       <c r="B536" t="n">
-        <v>290484</v>
+        <v>163474</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>V-Sabotage</t>
+          <t>Vaalbara</t>
         </is>
       </c>
       <c r="B537" t="n">
-        <v>163474</v>
+        <v>361241</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>Vaalbara</t>
+          <t>Vagrantsong</t>
         </is>
       </c>
       <c r="B538" t="n">
-        <v>361241</v>
+        <v>340325</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Vagrantsong</t>
+          <t>Valley of the Kings: Afterlife</t>
         </is>
       </c>
       <c r="B539" t="n">
-        <v>340325</v>
+        <v>175223</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>Valley of the Kings: Afterlife</t>
+          <t>Valley of the Kings: Last Rites</t>
         </is>
       </c>
       <c r="B540" t="n">
-        <v>175223</v>
+        <v>197065</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>Valley of the Kings: Last Rites</t>
+          <t>Valley of the Kings: Premium Edition</t>
         </is>
       </c>
       <c r="B541" t="n">
-        <v>197065</v>
+        <v>274466</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>Valley of the Kings: Premium Edition</t>
+          <t>Vanuatu (Second Edition)</t>
         </is>
       </c>
       <c r="B542" t="n">
-        <v>274466</v>
+        <v>193927</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>Vanuatu (Second Edition)</t>
+          <t>Vast: The Crystal Caverns</t>
         </is>
       </c>
       <c r="B543" t="n">
-        <v>193927</v>
+        <v>170416</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>Vast: The Crystal Caverns</t>
+          <t>Via Appia</t>
         </is>
       </c>
       <c r="B544" t="n">
-        <v>170416</v>
+        <v>137397</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>Via Appia</t>
+          <t>Vindication</t>
         </is>
       </c>
       <c r="B545" t="n">
-        <v>137397</v>
+        <v>224783</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>Vindication</t>
+          <t>Virtù</t>
         </is>
       </c>
       <c r="B546" t="n">
-        <v>224783</v>
+        <v>345377</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>Virtù</t>
+          <t>VivaJava: The Coffee Game: The Dice Game</t>
         </is>
       </c>
       <c r="B547" t="n">
-        <v>345377</v>
+        <v>139899</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>VivaJava: The Coffee Game: The Dice Game</t>
+          <t>Vivarium</t>
         </is>
       </c>
       <c r="B548" t="n">
-        <v>139899</v>
+        <v>361240</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Vivarium</t>
+          <t>Voices In My Head</t>
         </is>
       </c>
       <c r="B549" t="n">
-        <v>361240</v>
+        <v>354254</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>Voices In My Head</t>
+          <t>Votes for Women</t>
         </is>
       </c>
       <c r="B550" t="n">
-        <v>354254</v>
+        <v>311900</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>Votes for Women</t>
+          <t>War Chest</t>
         </is>
       </c>
       <c r="B551" t="n">
-        <v>311900</v>
+        <v>249259</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>War Chest</t>
+          <t>Watergate</t>
         </is>
       </c>
       <c r="B552" t="n">
-        <v>249259</v>
+        <v>274364</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>Watergate</t>
+          <t>Waters of Nereus</t>
         </is>
       </c>
       <c r="B553" t="n">
-        <v>274364</v>
+        <v>234578</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Waters of Nereus</t>
+          <t>Wavelength</t>
         </is>
       </c>
       <c r="B554" t="n">
-        <v>234578</v>
+        <v>262543</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>Wavelength</t>
+          <t>Welcome To...</t>
         </is>
       </c>
       <c r="B555" t="n">
-        <v>262543</v>
+        <v>233867</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>Welcome To...</t>
+          <t>Welcome To...: Collector's Edition</t>
         </is>
       </c>
       <c r="B556" t="n">
-        <v>233867</v>
+        <v>392449</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>Welcome To...: Collector's Edition</t>
+          <t>Welcome to Dino World</t>
         </is>
       </c>
       <c r="B557" t="n">
-        <v>392449</v>
+        <v>232524</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>Welcome to Dino World</t>
+          <t>Western Legends</t>
         </is>
       </c>
       <c r="B558" t="n">
-        <v>232524</v>
+        <v>232405</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Western Legends</t>
+          <t>When I Dream</t>
         </is>
       </c>
       <c r="B559" t="n">
-        <v>232405</v>
+        <v>198454</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>When I Dream</t>
+          <t>Wildlands</t>
         </is>
       </c>
       <c r="B560" t="n">
-        <v>198454</v>
+        <v>244654</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>Wildlands</t>
+          <t>Winner's Circle</t>
         </is>
       </c>
       <c r="B561" t="n">
-        <v>244654</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>Winner's Circle</t>
+          <t>World Wonders</t>
         </is>
       </c>
       <c r="B562" t="n">
-        <v>1382</v>
+        <v>365258</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>World Wonders</t>
+          <t>Wreck Raiders</t>
         </is>
       </c>
       <c r="B563" t="n">
-        <v>365258</v>
+        <v>252877</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Wreck Raiders</t>
+          <t>Xi'an</t>
         </is>
       </c>
       <c r="B564" t="n">
-        <v>252877</v>
+        <v>234828</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>Xi'an</t>
+          <t>Xia: Legends of a Drift System</t>
         </is>
       </c>
       <c r="B565" t="n">
-        <v>234828</v>
+        <v>82222</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>Xia: Legends of a Drift System</t>
+          <t>Yamatai</t>
         </is>
       </c>
       <c r="B566" t="n">
-        <v>82222</v>
+        <v>213893</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>Yamatai</t>
+          <t>Yedo</t>
         </is>
       </c>
       <c r="B567" t="n">
-        <v>213893</v>
+        <v>117915</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>Yedo</t>
+          <t>Zendo</t>
         </is>
       </c>
       <c r="B568" t="n">
-        <v>117915</v>
+        <v>6830</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>Zendo</t>
+          <t>Zombicide: Black Plague</t>
         </is>
       </c>
       <c r="B569" t="n">
-        <v>6830</v>
+        <v>176189</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>Zombicide: Black Plague</t>
+          <t>Zooloretto</t>
         </is>
       </c>
       <c r="B570" t="n">
-        <v>176189</v>
+        <v>27588</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>Zooloretto</t>
+          <t>Évora</t>
         </is>
       </c>
       <c r="B571" t="n">
-        <v>27588</v>
-      </c>
-    </row>
-    <row r="572">
-      <c r="A572" t="inlineStr">
-        <is>
-          <t>Évora</t>
-        </is>
-      </c>
-      <c r="B572" t="n">
         <v>339753</v>
       </c>
     </row>

--- a/data/boardgames_bgg_ids.xlsx
+++ b/data/boardgames_bgg_ids.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B571"/>
+  <dimension ref="A1:B576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>AQUA: Biodiversity in the oceans</t>
+          <t>AQUA: Biodiversity in the Oceans</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -2228,3920 +2228,3970 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Elder Sign</t>
+          <t>El Grande</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>100423</v>
+        <v>93</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Eldritch Horror</t>
+          <t>Elder Sign</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>146021</v>
+        <v>100423</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Element</t>
+          <t>Eldritch Horror</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>216403</v>
+        <v>146021</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Empire's End</t>
+          <t>Element</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>356952</v>
+        <v>216403</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Empires</t>
+          <t>Empire's End</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>230590</v>
+        <v>356952</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Enchanters</t>
+          <t>Empires</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>198138</v>
+        <v>230590</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Era: Medieval Age</t>
+          <t>Enchanters</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>270971</v>
+        <v>198138</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Escape Tales: The Awakening</t>
+          <t>Era: Medieval Age</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>253214</v>
+        <v>270971</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Etherfields</t>
+          <t>Escape Tales: The Awakening</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>280794</v>
+        <v>253214</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Ethnos</t>
+          <t>Etherfields</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>206718</v>
+        <v>280794</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Euphoria: Build a Better Dystopia</t>
+          <t>Ethnos</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>133848</v>
+        <v>206718</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Evenfall</t>
+          <t>Euphoria: Build a Better Dystopia</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>396989</v>
+        <v>133848</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Everdell Farshore</t>
+          <t>Evenfall</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>394106</v>
+        <v>396989</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Evolution</t>
+          <t>Everdell Farshore</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>155703</v>
+        <v>394106</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Ex Libris: Expanded Archives</t>
+          <t>Evolution</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>392094</v>
+        <v>155703</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Ex Libris: Revised Edition</t>
+          <t>Ex Libris: Expanded Archives</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>393000</v>
+        <v>392094</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Exodus: Proxima Centauri</t>
+          <t>Ex Libris: Revised Edition</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>122842</v>
+        <v>393000</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Expeditions</t>
+          <t>Exodus: Proxima Centauri</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>379078</v>
+        <v>122842</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>FUSE</t>
+          <t>Expeditions</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>171273</v>
+        <v>379078</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>FUSE Countdown</t>
+          <t>FUSE</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>369993</v>
+        <v>171273</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Fall of Rome</t>
+          <t>FUSE Countdown</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>260428</v>
+        <v>369993</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Faraway</t>
+          <t>Fall of Rome</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>385761</v>
+        <v>260428</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Favor of the Pharaoh</t>
+          <t>Faraway</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>171011</v>
+        <v>385761</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Firenze</t>
+          <t>Favor of the Pharaoh</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>75449</v>
+        <v>171011</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>First Class: All Aboard the Orient Express!</t>
+          <t>Firenze</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>206941</v>
+        <v>75449</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>First Martians: Adventures on the Red Planet</t>
+          <t>First Class: All Aboard the Orient Express!</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>192455</v>
+        <v>206941</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>First in Flight</t>
+          <t>First Martians: Adventures on the Red Planet</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>361788</v>
+        <v>192455</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Flamecraft</t>
+          <t>First in Flight</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>336986</v>
+        <v>361788</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Flick of Faith</t>
+          <t>Flamecraft</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>281194</v>
+        <v>336986</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Fliptown</t>
+          <t>Flick of Faith</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>352418</v>
+        <v>281194</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Fluff</t>
+          <t>Fliptown</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>256701</v>
+        <v>352418</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Fold-it</t>
+          <t>Fluff</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>206844</v>
+        <v>256701</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Foodies</t>
+          <t>Fold-it</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>280896</v>
+        <v>206844</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>For Science!</t>
+          <t>Foodies</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>280834</v>
+        <v>280896</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Forest Shuffle</t>
+          <t>For Science!</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>391163</v>
+        <v>280834</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Forgotten Waters</t>
+          <t>Forest Shuffle</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>302723</v>
+        <v>391163</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Formula D</t>
+          <t>Forgotten Waters</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>37904</v>
+        <v>302723</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Four Gardens</t>
+          <t>Formula D</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>296043</v>
+        <v>37904</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Franchise</t>
+          <t>Four Gardens</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>245645</v>
+        <v>296043</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Freedom: The Underground Railroad</t>
+          <t>Franchise</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>119506</v>
+        <v>245645</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Freelancers: A Crossroads Game</t>
+          <t>Freedom: The Underground Railroad</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>383206</v>
+        <v>119506</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Fresco</t>
+          <t>Freelancers: A Crossroads Game</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>66188</v>
+        <v>383206</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Fury of Dracula (Third/Fourth Edition)</t>
+          <t>Fresco</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>181279</v>
+        <v>66188</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Gasha</t>
+          <t>Fury of Dracula (Third/Fourth Edition)</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>340899</v>
+        <v>181279</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Genotype: A Mendelian Genetics Game</t>
+          <t>Gasha</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>252752</v>
+        <v>340899</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Get on Board: New York &amp; London</t>
+          <t>Genotype: A Mendelian Genetics Game</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>347013</v>
+        <v>252752</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Gizmos</t>
+          <t>Get on Board: New York &amp; London</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>246192</v>
+        <v>347013</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Glen More II: Chronicles</t>
+          <t>Gizmos</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>265188</v>
+        <v>246192</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Golem</t>
+          <t>Glen More II: Chronicles</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>298383</v>
+        <v>265188</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Great Western Trail (Second Edition)</t>
+          <t>Golem</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>341169</v>
+        <v>298383</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Gutenberg</t>
+          <t>Great Western Trail (Second Edition)</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>339958</v>
+        <v>341169</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Gùgōng</t>
+          <t>Gutenberg</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>250458</v>
+        <v>339958</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Habitats</t>
+          <t>Gùgōng</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>200853</v>
+        <v>250458</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Hamburg</t>
+          <t>Habitats</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>314580</v>
+        <v>200853</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Harvest Island</t>
+          <t>Hamburg</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>231639</v>
+        <v>314580</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Healthy Heart Hospital</t>
+          <t>Harvest Island</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>186721</v>
+        <v>231639</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Healthy Heart Hospital (Third Edition)</t>
+          <t>Healthy Heart Hospital</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>399018</v>
+        <v>186721</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Hegemony: Lead Your Class to Victory</t>
+          <t>Healthy Heart Hospital (Third Edition)</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>321608</v>
+        <v>399018</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Henhouse Havoc</t>
+          <t>Hegemony: Lead Your Class to Victory</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>243231</v>
+        <v>321608</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Heroes Welcome</t>
+          <t>Henhouse Havoc</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>212839</v>
+        <v>243231</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Heroes of Land, Air &amp; Sea</t>
+          <t>Heroes Welcome</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>198830</v>
+        <v>212839</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Heroes of Normandie</t>
+          <t>Heroes of Land, Air &amp; Sea</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>53093</v>
+        <v>198830</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Heroes of Normandie: Big Red One Edition</t>
+          <t>Heroes of Normandie</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>319264</v>
+        <v>53093</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Hibachi</t>
+          <t>Heroes of Normandie: Big Red One Edition</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>313718</v>
+        <v>319264</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Horrified</t>
+          <t>Hibachi</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>282524</v>
+        <v>313718</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Horrified: American Monsters</t>
+          <t>Horrified</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>343562</v>
+        <v>282524</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Horrified: Greek Monsters</t>
+          <t>Horrified: American Monsters</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>397897</v>
+        <v>343562</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Hues and Cues</t>
+          <t>Horrified: Greek Monsters</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>302520</v>
+        <v>397897</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Huns</t>
+          <t>Hues and Cues</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>233973</v>
+        <v>302520</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Icaion</t>
+          <t>Huns</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>276090</v>
+        <v>233973</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Igloo Pop</t>
+          <t>Icaion</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>8668</v>
+        <v>276090</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Illusion</t>
+          <t>Igloo Pop</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>244995</v>
+        <v>8668</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Ilôs</t>
+          <t>Illusion</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>219232</v>
+        <v>244995</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Imagine</t>
+          <t>Ilôs</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>191894</v>
+        <v>219232</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Imperial Miners</t>
+          <t>Imagine</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>378758</v>
+        <v>191894</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Imperial Settlers: 3 Is a Magic Number</t>
+          <t>Imperial Miners</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>195543</v>
+        <v>378758</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>In the Footsteps of Darwin</t>
+          <t>Imperial Settlers: 3 Is a Magic Number</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>376683</v>
+        <v>195543</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>In the Name of Odin</t>
+          <t>In the Footsteps of Darwin</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>184700</v>
+        <v>376683</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Innovation</t>
+          <t>In the Name of Odin</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>63888</v>
+        <v>184700</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Insecta: The Ladies of Entomology</t>
+          <t>Innovation</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>344508</v>
+        <v>63888</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Ion: A Compound Building Game</t>
+          <t>Insecta: The Ladies of Entomology</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>174611</v>
+        <v>344508</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Island Siege: Second Edition</t>
+          <t>Inventions: Evolution of Ideas</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>299971</v>
+        <v>347305</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Isle of Trains: All Aboard</t>
+          <t>Ion: A Compound Building Game</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>355224</v>
+        <v>174611</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Iwari</t>
+          <t>Island Siege: Second Edition</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>270109</v>
+        <v>299971</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Jaipur</t>
+          <t>Isle of Trains: All Aboard</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>54043</v>
+        <v>355224</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Juicy Fruits</t>
+          <t>Iwari</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>325698</v>
+        <v>270109</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Junk Art</t>
+          <t>Jaipur</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>193042</v>
+        <v>54043</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Kabuto Sumo</t>
+          <t>Juicy Fruits</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>320390</v>
+        <v>325698</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Kanagawa: Yokai</t>
+          <t>Junk Art</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>264398</v>
+        <v>193042</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Kashgar: Merchants of the Silk Road</t>
+          <t>Kabuto Sumo</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>143175</v>
+        <v>320390</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Kemet</t>
+          <t>Kanagawa: Yokai</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>127023</v>
+        <v>264398</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Kemet: Blood and Sand</t>
+          <t>Kashgar: Merchants of the Silk Road</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>297562</v>
+        <v>143175</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Kero</t>
+          <t>Kemet</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>222219</v>
+        <v>127023</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Key Largo</t>
+          <t>Kemet: Blood and Sand</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>18289</v>
+        <v>297562</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Khôra: Rise of an Empire</t>
+          <t>Kero</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>299684</v>
+        <v>222219</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Kids Chronicles: Quest for the Moon Stones</t>
+          <t>Key Largo</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>340288</v>
+        <v>18289</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Kinfire Chronicles: Night's Fall</t>
+          <t>Khôra: Rise of an Empire</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>364655</v>
+        <v>299684</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Kingdoms</t>
+          <t>Kids Chronicles: Quest for the Moon Stones</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>119</v>
+        <v>340288</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Kingsburg</t>
+          <t>Kinfire Chronicles: Night's Fall</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>27162</v>
+        <v>364655</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Kingsburg (Second Edition)</t>
+          <t>Kingdoms</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>199966</v>
+        <v>119</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Kites</t>
+          <t>Kingsburg</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>348096</v>
+        <v>27162</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Knarr</t>
+          <t>Kingsburg (Second Edition)</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>379629</v>
+        <v>199966</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Kokoro: Avenue of the Kodama</t>
+          <t>Kites</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>227758</v>
+        <v>348096</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Kryptos</t>
+          <t>Knarr</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>164354</v>
+        <v>379629</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Kutná Hora: The City of Silver</t>
+          <t>Kokoro: Avenue of the Kodama</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>385610</v>
+        <v>227758</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Kōhaku</t>
+          <t>Kryptos</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>270143</v>
+        <v>164354</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Last Message</t>
+          <t>Kutná Hora: The City of Silver</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>331059</v>
+        <v>385610</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Level 7 [Omega Protocol]</t>
+          <t>Kōhaku</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>137649</v>
+        <v>270143</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Libertalia: Winds of Galecrest</t>
+          <t>Last Message</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>356033</v>
+        <v>331059</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Life of the Amazonia</t>
+          <t>Level 7 [Omega Protocol]</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>368305</v>
+        <v>137649</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Lighthouse Run</t>
+          <t>Libertalia: Winds of Galecrest</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>158971</v>
+        <v>356033</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Llamaland</t>
+          <t>Life of the Amazonia</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>330038</v>
+        <v>368305</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Lockup: A Roll Player Tale</t>
+          <t>Lighthouse Run</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>240855</v>
+        <v>158971</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Long Shot: The Dice Game</t>
+          <t>Llamaland</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>295374</v>
+        <v>330038</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Loony Quest: The Lost City</t>
+          <t>Lockup: A Roll Player Tale</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>191302</v>
+        <v>240855</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Lord of the Rings: The Confrontation</t>
+          <t>Loco Momo</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>18833</v>
+        <v>317299</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Lost Cities</t>
+          <t>Long Shot: The Dice Game</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>50</v>
+        <v>295374</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Lost Legends</t>
+          <t>Loony Quest: The Lost City</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>131891</v>
+        <v>191302</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Lost Ruins of Arnak: The Missing Expedition</t>
+          <t>Lord of the Rings: The Confrontation</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>382350</v>
+        <v>18833</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Magic Fold</t>
+          <t>Lost Cities</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>259551</v>
+        <v>50</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Maglev Metro</t>
+          <t>Lost Legends</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>301257</v>
+        <v>131891</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Majolica</t>
+          <t>Lost Ruins of Arnak: The Missing Expedition</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>258041</v>
+        <v>382350</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Manhattan</t>
+          <t>Magic Fold</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>199</v>
+        <v>259551</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Mansions of Madness: Second Edition – Beyond the Threshold: Expansion</t>
+          <t>Maglev Metro</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>210674</v>
+        <v>301257</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Mansions of Madness: Second Edition – Recurring Nightmares: Figure and Tile Collection</t>
+          <t>Majolica</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>206547</v>
+        <v>258041</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Mansions of Madness: Second Edition – Suppressed Memories: Figure and Tile Collection</t>
+          <t>Manhattan</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>206548</v>
+        <v>199</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Maracaibo</t>
+          <t>Mansions of Madness: Second Edition – Beyond the Threshold: Expansion</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>276025</v>
+        <v>210674</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>March of the Ants</t>
+          <t>Mansions of Madness: Second Edition – Recurring Nightmares: Figure and Tile Collection</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>156496</v>
+        <v>206547</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Mariposas</t>
+          <t>Mansions of Madness: Second Edition – Suppressed Memories: Figure and Tile Collection</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>297978</v>
+        <v>206548</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Marvel Dice Masters: Age of Ultron – Collector's Box</t>
+          <t>Maracaibo</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>185109</v>
+        <v>276025</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Marvel Dice Masters: Civil War – Collector's Box</t>
+          <t>March of the Ants</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>210876</v>
+        <v>156496</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Marvel Dice Masters: The Amazing Spider-man – Collector's Box</t>
+          <t>Mariposas</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>196788</v>
+        <v>297978</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Marvel Dice Throne</t>
+          <t>Marvel Dice Masters: Age of Ultron – Collector's Box</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>348406</v>
+        <v>185109</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Marvel United</t>
+          <t>Marvel Dice Masters: Civil War – Collector's Box</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>298047</v>
+        <v>210876</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Massive Darkness</t>
+          <t>Marvel Dice Masters: The Amazing Spider-man – Collector's Box</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>197070</v>
+        <v>196788</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Massive Darkness 2: Hellscape</t>
+          <t>Marvel Dice Throne</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>315610</v>
+        <v>348406</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Meadow</t>
+          <t>Marvel United</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>314491</v>
+        <v>298047</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Meeple Circus</t>
+          <t>Massive Darkness</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>193214</v>
+        <v>197070</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Meeple War</t>
+          <t>Massive Darkness 2: Hellscape</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>192120</v>
+        <v>315610</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Menara: Rituals &amp; Ruins</t>
+          <t>Meadow</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>286655</v>
+        <v>314491</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Merchant of Venus (Second Edition)</t>
+          <t>Meeple Circus</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>131646</v>
+        <v>193214</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Merchants Cove</t>
+          <t>Meeple War</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>277700</v>
+        <v>192120</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Merv: The Heart of the Silk Road</t>
+          <t>Menara: Rituals &amp; Ruins</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>306040</v>
+        <v>286655</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Mice and Mystics</t>
+          <t>Merchant of Venus (Second Edition)</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>124708</v>
+        <v>131646</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Millennium Blades</t>
+          <t>Merchants Cove</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>151347</v>
+        <v>277700</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Minute Realms</t>
+          <t>Merv: The Heart of the Silk Road</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>234468</v>
+        <v>306040</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Mission Control: Critical Orbit</t>
+          <t>Mice and Mystics</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>360121</v>
+        <v>124708</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Monumental</t>
+          <t>Millennium Blades</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>248125</v>
+        <v>151347</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Mountain Goats</t>
+          <t>Minute Realms</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>63975</v>
+        <v>234468</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Mountains of Madness</t>
+          <t>Mission Control: Critical Orbit</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>214293</v>
+        <v>360121</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Multiuniversum</t>
+          <t>Monumental</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>192638</v>
+        <v>248125</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Museum</t>
+          <t>Mountain Goats</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>204505</v>
+        <v>63975</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>My Father's Work</t>
+          <t>Mountains of Madness</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>328866</v>
+        <v>214293</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Mysterium: Hidden Signs</t>
+          <t>Multiuniversum</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>192661</v>
+        <v>192638</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Mysterium: Secrets &amp; Lies</t>
+          <t>Museum</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>216465</v>
+        <v>204505</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Mystery of the Abbey</t>
+          <t>My Father's Work</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>915</v>
+        <v>328866</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Mystic Vale</t>
+          <t>Mysterium: Hidden Signs</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>194607</v>
+        <v>192661</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Mystic Vale: Essential Edition</t>
+          <t>Mysterium: Secrets &amp; Lies</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>308762</v>
+        <v>216465</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Naga Raja</t>
+          <t>Mystery of the Abbey</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>244191</v>
+        <v>915</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Necromolds: Monster Battles</t>
+          <t>Mystic Vale</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>294986</v>
+        <v>194607</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Nemesis</t>
+          <t>Mystic Vale: Essential Edition</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>167355</v>
+        <v>308762</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>New York Zoo</t>
+          <t>Naga Raja</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>300877</v>
+        <v>244191</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Next Station: London</t>
+          <t>Necromolds: Monster Battles</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>353545</v>
+        <v>294986</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Nidavellir: Thingvellir</t>
+          <t>Nemesis</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>326984</v>
+        <v>167355</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Night Parade of a Hundred Yokai</t>
+          <t>New York Zoo</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>314589</v>
+        <v>300877</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Night of the Ninja</t>
+          <t>Next Station: London</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>306321</v>
+        <v>353545</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Ninjato</t>
+          <t>Nidavellir: Thingvellir</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>50768</v>
+        <v>326984</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Nippon</t>
+          <t>Night Parade of a Hundred Yokai</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>154809</v>
+        <v>314589</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Notre Dame: 10th Anniversary</t>
+          <t>Night of the Ninja</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>213984</v>
+        <v>306321</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Nova Roma</t>
+          <t>Ninjato</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>370789</v>
+        <v>50768</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Now Boarding</t>
+          <t>Nippon</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>231567</v>
+        <v>154809</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Nyctophobia</t>
+          <t>Notre Dame: 10th Anniversary</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>249505</v>
+        <v>213984</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Nyet!</t>
+          <t>Nova Roma</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>1107</v>
+        <v>370789</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>O Bom do Videogame</t>
+          <t>Now Boarding</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>234432</v>
+        <v>231567</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Odin's Ravens (Second Edition)</t>
+          <t>Nyctophobia</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>192074</v>
+        <v>249505</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Once Upon a Castle</t>
+          <t>Nyet!</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>244333</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>One Key</t>
+          <t>O Bom do Videogame</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>263155</v>
+        <v>234432</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Orbis</t>
+          <t>Odin's Ravens (Second Edition)</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>255507</v>
+        <v>192074</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Origins: First Builders</t>
+          <t>Once Upon a Castle</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>322588</v>
+        <v>244333</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Otys</t>
+          <t>One Key</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>222542</v>
+        <v>263155</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>PARKS</t>
+          <t>Orbis</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>266524</v>
+        <v>255507</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Pack &amp; Stack</t>
+          <t>Origins: First Builders</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>37120</v>
+        <v>322588</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Paleo</t>
+          <t>Otys</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>300531</v>
+        <v>222542</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Pandemic Legacy: Season 1</t>
+          <t>PARKS</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>161936</v>
+        <v>266524</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Pandemic Legacy: Season 2</t>
+          <t>Pack &amp; Stack</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>221107</v>
+        <v>37120</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Pandoria</t>
+          <t>Paleo</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>248167</v>
+        <v>300531</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Paper Dungeons: A Dungeon Scrawler Game</t>
+          <t>Pandemic Legacy: Season 1</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>291962</v>
+        <v>161936</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Paper Tales</t>
+          <t>Pandemic Legacy: Season 2</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>217861</v>
+        <v>221107</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Papà Paolo</t>
+          <t>Pandoria</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>195867</v>
+        <v>248167</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Paris</t>
+          <t>Paper Dungeons: A Dungeon Scrawler Game</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>282954</v>
+        <v>291962</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Paris: La Cité de la Lumière</t>
+          <t>Paper Tales</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>276498</v>
+        <v>217861</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Patchwork</t>
+          <t>Papà Paolo</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>163412</v>
+        <v>195867</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Pelican Cove</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>90870</v>
+        <v>282954</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Pharaon</t>
+          <t>Paris: La Cité de la Lumière</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>282414</v>
+        <v>276498</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Pile-Up Rush</t>
+          <t>Patchwork</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>220707</v>
+        <v>163412</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Pioneer Rails</t>
+          <t>Pelican Cove</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>362164</v>
+        <v>90870</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Pirates of the 7 Seas</t>
+          <t>Pharaon</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>172613</v>
+        <v>282414</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Planet</t>
+          <t>Pile-Up Rush</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>252929</v>
+        <v>220707</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Potion Explosion</t>
+          <t>Pioneer Rails</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>180974</v>
+        <v>362164</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Project: ELITE</t>
+          <t>Pirates of the 7 Seas</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>256999</v>
+        <v>172613</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Prêt-à-Porter</t>
+          <t>Planet</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>87890</v>
+        <v>252929</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Pyramid Poker</t>
+          <t>Potion Explosion</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>213953</v>
+        <v>180974</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>QE</t>
+          <t>Project: ELITE</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>266830</v>
+        <v>256999</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Quantum</t>
+          <t>Prêt-à-Porter</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>143519</v>
+        <v>87890</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Queen's Necklace</t>
+          <t>Pyramid Poker</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>6068</v>
+        <v>213953</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Quodd Heroes</t>
+          <t>QE</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>207991</v>
+        <v>266830</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Radlands</t>
+          <t>Quantum</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>329082</v>
+        <v>143519</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Raiatea</t>
+          <t>Queen's Necklace</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>256728</v>
+        <v>6068</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Raiders of Scythia</t>
+          <t>Quodd Heroes</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>301880</v>
+        <v>207991</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Raiders of the North Sea</t>
+          <t>Radlands</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>170042</v>
+        <v>329082</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Raids</t>
+          <t>Raiatea</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>234429</v>
+        <v>256728</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Raptor</t>
+          <t>Raiders of Scythia</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>177639</v>
+        <v>301880</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Ready Set Bet</t>
+          <t>Raiders of the North Sea</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>351040</v>
+        <v>170042</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Realm of Sand</t>
+          <t>Raids</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>256623</v>
+        <v>234429</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Rear Window</t>
+          <t>Raptor</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>358816</v>
+        <v>177639</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Res Arcana: Perlae Imperii</t>
+          <t>Ready Set Bet</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>340375</v>
+        <v>351040</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Return to Dark Tower</t>
+          <t>Realm of Sand</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>256680</v>
+        <v>256623</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Riftforce</t>
+          <t>Rear Window</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>291859</v>
+        <v>358816</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>Rivals for Catan</t>
+          <t>Res Arcana: Perlae Imperii</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>66056</v>
+        <v>340375</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Roar: King of the Pride</t>
+          <t>Return to Dark Tower</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>237229</v>
+        <v>256680</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>Robin of Locksley</t>
+          <t>Riftforce</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>280132</v>
+        <v>291859</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>Robot Quest Arena</t>
+          <t>Rivals for Catan</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>304668</v>
+        <v>66056</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>Rococo: Jewelry Box</t>
+          <t>Roar: King of the Pride</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>176990</v>
+        <v>237229</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>Roll Player: Fiends &amp; Familiars</t>
+          <t>Robin of Locksley</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>255601</v>
+        <v>280132</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Roll Through the Ages: The Bronze Age</t>
+          <t>Robot Quest Arena</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>37380</v>
+        <v>304668</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>Rome &amp; Roll</t>
+          <t>Rococo: Jewelry Box</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>267009</v>
+        <v>176990</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Ruination</t>
+          <t>Roll Player: Fiends &amp; Familiars</t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>276856</v>
+        <v>255601</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>Rum &amp; Bones: Second Tide</t>
+          <t>Roll Through the Ages: The Bronze Age</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>196202</v>
+        <v>37380</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>SCOUT</t>
+          <t>Rome &amp; Roll</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>291453</v>
+        <v>267009</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Sabika</t>
+          <t>Ruination</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>360265</v>
+        <v>276856</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>Sabotage</t>
+          <t>Rum &amp; Bones: Second Tide</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>252854</v>
+        <v>196202</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>Sagani</t>
+          <t>SCOUT</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>309105</v>
+        <v>291453</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>Sailing Toward Osiris</t>
+          <t>Sabika</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>224079</v>
+        <v>360265</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>Saint Malo</t>
+          <t>Sabotage</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>117960</v>
+        <v>252854</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Sanctum</t>
+          <t>Sagani</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>276830</v>
+        <v>309105</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>Santorini</t>
+          <t>Sailing Toward Osiris</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>194655</v>
+        <v>224079</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>Scarface 1920</t>
+          <t>Saint Malo</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>324090</v>
+        <v>117960</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>Scattergories</t>
+          <t>Salton Sea</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>2381</v>
+        <v>402663</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>Schotten Totten</t>
+          <t>Sanctum</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>372</v>
+        <v>276830</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Scythe: The Rise of Fenris</t>
+          <t>Sand</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>242277</v>
+        <v>402669</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>Seas of Havoc</t>
+          <t>Santorini</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>343525</v>
+        <v>194655</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>Seasons</t>
+          <t>Scarface 1920</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>108745</v>
+        <v>324090</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>Seastead</t>
+          <t>Scattergories</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>307656</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>Shakespeare</t>
+          <t>Schotten Totten</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>180511</v>
+        <v>372</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Shards of Infinity</t>
+          <t>Scythe: The Rise of Fenris</t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>244115</v>
+        <v>242277</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>Sheep &amp; Thief</t>
+          <t>Seas of Havoc</t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>167298</v>
+        <v>343525</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>Ship Shape: It's a Smuggler's Bounty!</t>
+          <t>Seasons</t>
         </is>
       </c>
       <c r="B426" t="n">
-        <v>255594</v>
+        <v>108745</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>Silver &amp; Gold Pyramids</t>
+          <t>Seastead</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>402215</v>
+        <v>307656</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>Skulk Hollow</t>
+          <t>Shakespeare</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>232595</v>
+        <v>180511</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Skymines</t>
+          <t>Shards of Infinity</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>359438</v>
+        <v>244115</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>Skyward</t>
+          <t>Sheep &amp; Thief</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>209664</v>
+        <v>167298</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>Slide Quest</t>
+          <t>Ship Shape: It's a Smuggler's Bounty!</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>271785</v>
+        <v>255594</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>Small Islands</t>
+          <t>Silver &amp; Gold Pyramids</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>236248</v>
+        <v>402215</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>Smiths of Winterforge</t>
+          <t>Skulk Hollow</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>192619</v>
+        <v>232595</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Sobek: 2 Players</t>
+          <t>Skymines</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>332944</v>
+        <v>359438</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>Solenia</t>
+          <t>Skyward</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>254018</v>
+        <v>209664</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>Star Realms: Colony Wars</t>
+          <t>Slide Quest</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>182631</v>
+        <v>271785</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>Star Wars: Armada</t>
+          <t>Small Islands</t>
         </is>
       </c>
       <c r="B437" t="n">
-        <v>163745</v>
+        <v>236248</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>Star Wars: Rebellion</t>
+          <t>Smiths of Winterforge</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>187645</v>
+        <v>192619</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Steam Time</t>
+          <t>Sobek: 2 Players</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>180592</v>
+        <v>332944</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>Steam Torpedo: First Contact – To Your Positions!</t>
+          <t>Solenia</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>125682</v>
+        <v>254018</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>Stella: Dixit Universe</t>
+          <t>Star Realms: Colony Wars</t>
         </is>
       </c>
       <c r="B441" t="n">
-        <v>329845</v>
+        <v>182631</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>Stroganov</t>
+          <t>Star Wars: Armada</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>323156</v>
+        <v>163745</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>Sub Terra</t>
+          <t>Star Wars: Rebellion</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>204472</v>
+        <v>187645</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Summit: The Board Game</t>
+          <t>Steam Time</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>201186</v>
+        <v>180592</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>Summoner Wars (Second Edition)</t>
+          <t>Steam Torpedo: First Contact – To Your Positions!</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>332800</v>
+        <v>125682</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>Sunflower Valley</t>
+          <t>Stella: Dixit Universe</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>228390</v>
+        <v>329845</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>Super Motherload</t>
+          <t>Stroganov</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>162286</v>
+        <v>323156</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>Super Punch Fighter</t>
+          <t>Sub Terra</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>276641</v>
+        <v>204472</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Sushi Go Party!</t>
+          <t>Summit: The Board Game</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>192291</v>
+        <v>201186</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>Symphony No.9</t>
+          <t>Summoner Wars (Second Edition)</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>244141</v>
+        <v>332800</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>Tainted Grail: The Fall of Avalon</t>
+          <t>Sunflower Valley</t>
         </is>
       </c>
       <c r="B451" t="n">
-        <v>264220</v>
+        <v>228390</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>Tales of Glory</t>
+          <t>Super Motherload</t>
         </is>
       </c>
       <c r="B452" t="n">
-        <v>246816</v>
+        <v>162286</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>Taluva</t>
+          <t>Super Punch Fighter</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>24508</v>
+        <v>276641</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Tammany Hall</t>
+          <t>Sushi Go Party!</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>30645</v>
+        <v>192291</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>Tannhäuser</t>
+          <t>Symphony No.9</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>25261</v>
+        <v>244141</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>Tapestry</t>
+          <t>Tainted Grail: The Fall of Avalon</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>286096</v>
+        <v>264220</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>Tenpenny Parks</t>
+          <t>Tales of Glory</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>294702</v>
+        <v>246816</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>Teotihuacan: Expansion Period</t>
+          <t>Taluva</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>316777</v>
+        <v>24508</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Teotihuacan: Shadow of Xitle</t>
+          <t>Tammany Hall</t>
         </is>
       </c>
       <c r="B459" t="n">
-        <v>293473</v>
+        <v>30645</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>Terraforming Mars</t>
+          <t>Tannhäuser</t>
         </is>
       </c>
       <c r="B460" t="n">
-        <v>167791</v>
+        <v>25261</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>Terramara</t>
+          <t>Tapestry</t>
         </is>
       </c>
       <c r="B461" t="n">
-        <v>272427</v>
+        <v>286096</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>Terror Below</t>
+          <t>Tenpenny Parks</t>
         </is>
       </c>
       <c r="B462" t="n">
-        <v>270138</v>
+        <v>294702</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>Terrorscape</t>
+          <t>Teotihuacan: Expansion Period</t>
         </is>
       </c>
       <c r="B463" t="n">
-        <v>371433</v>
+        <v>316777</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Tesseract</t>
+          <t>Teotihuacan: Shadow of Xitle</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>367385</v>
+        <v>293473</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>The Artemis Project</t>
+          <t>Terraforming Mars</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>254713</v>
+        <v>167791</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>The Boldest</t>
+          <t>Terramara</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>261529</v>
+        <v>272427</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>The Brigade</t>
+          <t>Terror Below</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>213503</v>
+        <v>270138</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>The Captain Is Dead</t>
+          <t>Terrorscape</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>159503</v>
+        <v>371433</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>The Captain Is Dead: Lockdown</t>
+          <t>Tesseract</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>208804</v>
+        <v>367385</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>The Crusoe Crew</t>
+          <t>The Artemis Project</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>244274</v>
+        <v>254713</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>The Downfall of Pompeii</t>
+          <t>The Boldest</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>13004</v>
+        <v>261529</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>The Edge: Dawnfall</t>
+          <t>The Brigade</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>207729</v>
+        <v>213503</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>The Expanse Board Game</t>
+          <t>The Captain Is Dead</t>
         </is>
       </c>
       <c r="B473" t="n">
-        <v>220792</v>
+        <v>159503</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>The Finest Fish</t>
+          <t>The Captain Is Dead: Lockdown</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>362587</v>
+        <v>208804</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>The Fox Experiment</t>
+          <t>The Crusoe Crew</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>368432</v>
+        <v>244274</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>The Grand Carnival</t>
+          <t>The Downfall of Pompeii</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>289081</v>
+        <v>13004</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>The Great Dinosaur Rush</t>
+          <t>The Edge: Dawnfall</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>179071</v>
+        <v>207729</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>The Great Wall</t>
+          <t>The Expanse Board Game</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>292375</v>
+        <v>220792</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>The Initiative</t>
+          <t>The Finest Fish</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>328908</v>
+        <v>362587</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>The Key: Murder at the Oakdale Club</t>
+          <t>The Fox Experiment</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>299172</v>
+        <v>368432</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>The Key: Sabotage at Lucky Llama Land</t>
+          <t>The Grand Carnival</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>322039</v>
+        <v>289081</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>The Key: Theft at Cliffrock Villa</t>
+          <t>The Great Dinosaur Rush</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>299171</v>
+        <v>179071</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>The King's Dilemma</t>
+          <t>The Great Wall</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>245655</v>
+        <v>292375</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>The King's Guild</t>
+          <t>The Initiative</t>
         </is>
       </c>
       <c r="B484" t="n">
-        <v>206327</v>
+        <v>328908</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>The Manhattan Project</t>
+          <t>The Key: Murder at the Oakdale Club</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>63628</v>
+        <v>299172</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>The Menace Among Us</t>
+          <t>The Key: Sabotage at Lucky Llama Land</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>274405</v>
+        <v>322039</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>The Networks</t>
+          <t>The Key: Theft at Cliffrock Villa</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>72321</v>
+        <v>299171</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>The Night Cage</t>
+          <t>The King's Dilemma</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>306709</v>
+        <v>245655</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>The Pillars of the Earth</t>
+          <t>The King's Guild</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>24480</v>
+        <v>206327</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>The Plot Thickens: Detective Edition</t>
+          <t>The Manhattan Project</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>210816</v>
+        <v>63628</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>The Plot Thickens: Romance Edition</t>
+          <t>The Menace Among Us</t>
         </is>
       </c>
       <c r="B491" t="n">
-        <v>210818</v>
+        <v>274405</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>The Plot Thickens: Sci-Fi Edition</t>
+          <t>The Networks</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>210817</v>
+        <v>72321</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>The Quacks of Quedlinburg</t>
+          <t>The Night Cage</t>
         </is>
       </c>
       <c r="B493" t="n">
-        <v>244521</v>
+        <v>306709</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>The River</t>
+          <t>The Pillars of the Earth</t>
         </is>
       </c>
       <c r="B494" t="n">
-        <v>257759</v>
+        <v>24480</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>The Search for Lost Species</t>
+          <t>The Plot Thickens: Detective Edition</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>358557</v>
+        <v>210816</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>The Search for Planet X</t>
+          <t>The Plot Thickens: Romance Edition</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>279537</v>
+        <v>210818</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>The Shipwreck Arcana</t>
+          <t>The Plot Thickens: Sci-Fi Edition</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>220517</v>
+        <v>210817</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>The Specialists</t>
+          <t>The Quacks of Quedlinburg</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>320992</v>
+        <v>244521</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>The Stygian Society</t>
+          <t>The River</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>204470</v>
+        <v>257759</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>The Voyages of Marco Polo: Agents of Venice</t>
+          <t>The Search for Lost Species</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>232945</v>
+        <v>358557</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>Thunder &amp; Lightning</t>
+          <t>The Search for Planet X</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>191963</v>
+        <v>279537</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>Thunder Road: Vendetta</t>
+          <t>The Shipwreck Arcana</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>342070</v>
+        <v>220517</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>Thunder Road: Vendetta – Maximum Chrome</t>
+          <t>The Specialists</t>
         </is>
       </c>
       <c r="B503" t="n">
-        <v>355997</v>
+        <v>320992</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Tidal Blades: Heroes of the Reef</t>
+          <t>The Stygian Society</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>233262</v>
+        <v>204470</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>Timeline Challenge</t>
+          <t>The Voyages of Marco Polo: Agents of Venice</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>173156</v>
+        <v>232945</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>Timeline: Classic</t>
+          <t>Thunder &amp; Lightning</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>257284</v>
+        <v>191963</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>Timeline: Discoveries</t>
+          <t>Thunder Road: Vendetta</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>99975</v>
+        <v>342070</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>Timeline: Events</t>
+          <t>Thunder Road: Vendetta – Maximum Chrome</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>113401</v>
+        <v>355997</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Timeline: Inventions</t>
+          <t>Tidal Blades: Heroes of the Reef</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>85256</v>
+        <v>233262</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>Timeline: Music &amp; Cinema</t>
+          <t>Timeline Challenge</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>145189</v>
+        <v>173156</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>Tintas</t>
+          <t>Timeline: Classic</t>
         </is>
       </c>
       <c r="B511" t="n">
-        <v>207951</v>
+        <v>257284</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>Tiny Towns</t>
+          <t>Timeline: Discoveries</t>
         </is>
       </c>
       <c r="B512" t="n">
-        <v>265736</v>
+        <v>99975</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>Tobago</t>
+          <t>Timeline: Events</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>42215</v>
+        <v>113401</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Tomb Trader</t>
+          <t>Timeline: Inventions</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>214879</v>
+        <v>85256</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>Tonari</t>
+          <t>Timeline: Music &amp; Cinema</t>
         </is>
       </c>
       <c r="B515" t="n">
-        <v>273993</v>
+        <v>145189</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>Trade on the Tigris</t>
+          <t>Tintas</t>
         </is>
       </c>
       <c r="B516" t="n">
-        <v>250754</v>
+        <v>207951</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>Tragedy Looper</t>
+          <t>Tiny Towns</t>
         </is>
       </c>
       <c r="B517" t="n">
-        <v>148319</v>
+        <v>265736</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>Tragedy Looper: New Tragedies</t>
+          <t>Tobago</t>
         </is>
       </c>
       <c r="B518" t="n">
-        <v>374266</v>
+        <v>42215</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Trails</t>
+          <t>Tomb Trader</t>
         </is>
       </c>
       <c r="B519" t="n">
-        <v>338628</v>
+        <v>214879</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>Treasure Hunter</t>
+          <t>Tonari</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>182189</v>
+        <v>273993</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>Treasure Island</t>
+          <t>Trade on the Tigris</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>242639</v>
+        <v>250754</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>Trekking Through History</t>
+          <t>Tragedy Looper</t>
         </is>
       </c>
       <c r="B522" t="n">
-        <v>353288</v>
+        <v>148319</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>Trekking the World</t>
+          <t>Tragedy Looper: New Tragedies</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>300442</v>
+        <v>374266</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Triassic Terror</t>
+          <t>Trails</t>
         </is>
       </c>
       <c r="B524" t="n">
-        <v>135243</v>
+        <v>338628</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>Trickerion: Legends of Illusion</t>
+          <t>Treasure Hunter</t>
         </is>
       </c>
       <c r="B525" t="n">
-        <v>163068</v>
+        <v>182189</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>Tricky Tides</t>
+          <t>Treasure Island</t>
         </is>
       </c>
       <c r="B526" t="n">
-        <v>234776</v>
+        <v>242639</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>Tsukuyumi: Full Moon Down</t>
+          <t>Trekking Through History</t>
         </is>
       </c>
       <c r="B527" t="n">
-        <v>185538</v>
+        <v>353288</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>Twilight Imperium: Fourth Edition</t>
+          <t>Trekking the World</t>
         </is>
       </c>
       <c r="B528" t="n">
-        <v>233078</v>
+        <v>300442</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>Twilight Struggle</t>
+          <t>Triassic Terror</t>
         </is>
       </c>
       <c r="B529" t="n">
-        <v>12333</v>
+        <v>135243</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>U.S. Telegraph</t>
+          <t>Trickerion: Legends of Illusion</t>
         </is>
       </c>
       <c r="B530" t="n">
-        <v>249410</v>
+        <v>163068</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>Underwater Cities</t>
+          <t>Tricky Tides</t>
         </is>
       </c>
       <c r="B531" t="n">
-        <v>247763</v>
+        <v>234776</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>Unicorn Fever</t>
+          <t>Tsukuyumi: Full Moon Down</t>
         </is>
       </c>
       <c r="B532" t="n">
-        <v>245658</v>
+        <v>185538</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>Unmatched: Battle of Legends, Volume One</t>
+          <t>Twilight Imperium: Fourth Edition</t>
         </is>
       </c>
       <c r="B533" t="n">
-        <v>274637</v>
+        <v>233078</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>Unmatched: Cobble &amp; Fog</t>
+          <t>Twilight Struggle</t>
         </is>
       </c>
       <c r="B534" t="n">
-        <v>294484</v>
+        <v>12333</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>Unsettled</t>
+          <t>U.S. Telegraph</t>
         </is>
       </c>
       <c r="B535" t="n">
-        <v>290484</v>
+        <v>249410</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>V-Sabotage</t>
+          <t>Underwater Cities</t>
         </is>
       </c>
       <c r="B536" t="n">
-        <v>163474</v>
+        <v>247763</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>Vaalbara</t>
+          <t>Unicorn Fever</t>
         </is>
       </c>
       <c r="B537" t="n">
-        <v>361241</v>
+        <v>245658</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>Vagrantsong</t>
+          <t>Unmatched: Battle of Legends, Volume One</t>
         </is>
       </c>
       <c r="B538" t="n">
-        <v>340325</v>
+        <v>274637</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Valley of the Kings: Afterlife</t>
+          <t>Unmatched: Cobble &amp; Fog</t>
         </is>
       </c>
       <c r="B539" t="n">
-        <v>175223</v>
+        <v>294484</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>Valley of the Kings: Last Rites</t>
+          <t>Unsettled</t>
         </is>
       </c>
       <c r="B540" t="n">
-        <v>197065</v>
+        <v>290484</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>Valley of the Kings: Premium Edition</t>
+          <t>V-Sabotage</t>
         </is>
       </c>
       <c r="B541" t="n">
-        <v>274466</v>
+        <v>163474</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>Vanuatu (Second Edition)</t>
+          <t>Vaalbara</t>
         </is>
       </c>
       <c r="B542" t="n">
-        <v>193927</v>
+        <v>361241</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>Vast: The Crystal Caverns</t>
+          <t>Vagrantsong</t>
         </is>
       </c>
       <c r="B543" t="n">
-        <v>170416</v>
+        <v>340325</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>Via Appia</t>
+          <t>Valley of the Kings: Afterlife</t>
         </is>
       </c>
       <c r="B544" t="n">
-        <v>137397</v>
+        <v>175223</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>Vindication</t>
+          <t>Valley of the Kings: Last Rites</t>
         </is>
       </c>
       <c r="B545" t="n">
-        <v>224783</v>
+        <v>197065</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>Virtù</t>
+          <t>Valley of the Kings: Premium Edition</t>
         </is>
       </c>
       <c r="B546" t="n">
-        <v>345377</v>
+        <v>274466</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>VivaJava: The Coffee Game: The Dice Game</t>
+          <t>Vanuatu (Second Edition)</t>
         </is>
       </c>
       <c r="B547" t="n">
-        <v>139899</v>
+        <v>193927</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>Vivarium</t>
+          <t>Vast: The Crystal Caverns</t>
         </is>
       </c>
       <c r="B548" t="n">
-        <v>361240</v>
+        <v>170416</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Voices In My Head</t>
+          <t>Via Appia</t>
         </is>
       </c>
       <c r="B549" t="n">
-        <v>354254</v>
+        <v>137397</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>Votes for Women</t>
+          <t>Vindication</t>
         </is>
       </c>
       <c r="B550" t="n">
-        <v>311900</v>
+        <v>224783</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>War Chest</t>
+          <t>Virtù</t>
         </is>
       </c>
       <c r="B551" t="n">
-        <v>249259</v>
+        <v>345377</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>Watergate</t>
+          <t>VivaJava: The Coffee Game: The Dice Game</t>
         </is>
       </c>
       <c r="B552" t="n">
-        <v>274364</v>
+        <v>139899</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>Waters of Nereus</t>
+          <t>Vivarium</t>
         </is>
       </c>
       <c r="B553" t="n">
-        <v>234578</v>
+        <v>361240</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Wavelength</t>
+          <t>Voices In My Head</t>
         </is>
       </c>
       <c r="B554" t="n">
-        <v>262543</v>
+        <v>354254</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>Welcome To...</t>
+          <t>Votes for Women</t>
         </is>
       </c>
       <c r="B555" t="n">
-        <v>233867</v>
+        <v>311900</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>Welcome To...: Collector's Edition</t>
+          <t>War Chest</t>
         </is>
       </c>
       <c r="B556" t="n">
-        <v>392449</v>
+        <v>249259</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>Welcome to Dino World</t>
+          <t>Watergate</t>
         </is>
       </c>
       <c r="B557" t="n">
-        <v>232524</v>
+        <v>274364</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>Western Legends</t>
+          <t>Waters of Nereus</t>
         </is>
       </c>
       <c r="B558" t="n">
-        <v>232405</v>
+        <v>234578</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>When I Dream</t>
+          <t>Wavelength</t>
         </is>
       </c>
       <c r="B559" t="n">
-        <v>198454</v>
+        <v>262543</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>Wildlands</t>
+          <t>Welcome To...</t>
         </is>
       </c>
       <c r="B560" t="n">
-        <v>244654</v>
+        <v>233867</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>Winner's Circle</t>
+          <t>Welcome To...: Collector's Edition</t>
         </is>
       </c>
       <c r="B561" t="n">
-        <v>1382</v>
+        <v>392449</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>World Wonders</t>
+          <t>Welcome to Dino World</t>
         </is>
       </c>
       <c r="B562" t="n">
-        <v>365258</v>
+        <v>232524</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>Wreck Raiders</t>
+          <t>Western Legends</t>
         </is>
       </c>
       <c r="B563" t="n">
-        <v>252877</v>
+        <v>232405</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Xi'an</t>
+          <t>When I Dream</t>
         </is>
       </c>
       <c r="B564" t="n">
-        <v>234828</v>
+        <v>198454</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>Xia: Legends of a Drift System</t>
+          <t>Wildlands</t>
         </is>
       </c>
       <c r="B565" t="n">
-        <v>82222</v>
+        <v>244654</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>Yamatai</t>
+          <t>Winner's Circle</t>
         </is>
       </c>
       <c r="B566" t="n">
-        <v>213893</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>Yedo</t>
+          <t>World Wonders</t>
         </is>
       </c>
       <c r="B567" t="n">
-        <v>117915</v>
+        <v>365258</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>Zendo</t>
+          <t>Wreck Raiders</t>
         </is>
       </c>
       <c r="B568" t="n">
-        <v>6830</v>
+        <v>252877</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>Zombicide: Black Plague</t>
+          <t>Xi'an</t>
         </is>
       </c>
       <c r="B569" t="n">
-        <v>176189</v>
+        <v>234828</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>Zooloretto</t>
+          <t>Xia: Legends of a Drift System</t>
         </is>
       </c>
       <c r="B570" t="n">
-        <v>27588</v>
+        <v>82222</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
+          <t>Yamatai</t>
+        </is>
+      </c>
+      <c r="B571" t="n">
+        <v>213893</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>Yedo</t>
+        </is>
+      </c>
+      <c r="B572" t="n">
+        <v>117915</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>Zendo</t>
+        </is>
+      </c>
+      <c r="B573" t="n">
+        <v>6830</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>Zombicide: Black Plague</t>
+        </is>
+      </c>
+      <c r="B574" t="n">
+        <v>176189</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>Zooloretto</t>
+        </is>
+      </c>
+      <c r="B575" t="n">
+        <v>27588</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
           <t>Évora</t>
         </is>
       </c>
-      <c r="B571" t="n">
+      <c r="B576" t="n">
         <v>339753</v>
       </c>
     </row>

--- a/data/boardgames_bgg_ids.xlsx
+++ b/data/boardgames_bgg_ids.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B576"/>
+  <dimension ref="A1:B575"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1108,3381 +1108,3381 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Books of Time</t>
+          <t>Bosk</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>372631</v>
+        <v>252556</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Bosk</t>
+          <t>Brick &amp; Mortar</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>252556</v>
+        <v>257435</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Brick &amp; Mortar</t>
+          <t>Bumúntú</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>257435</v>
+        <v>201006</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Bumúntú</t>
+          <t>Bunny Kingdom</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>201006</v>
+        <v>184921</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Bunny Kingdom</t>
+          <t>Burgle Bros.</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>184921</v>
+        <v>172081</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Burgle Bros.</t>
+          <t>Bärenpark</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>172081</v>
+        <v>219513</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Bärenpark</t>
+          <t>Cacao: Diamante</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>219513</v>
+        <v>231967</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Cacao: Diamante</t>
+          <t>Caesar!: Seize Rome in 20 Minutes!</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>231967</v>
+        <v>338957</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Caesar!: Seize Rome in 20 Minutes!</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>338957</v>
+        <v>284936</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Call to Adventure</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>284936</v>
+        <v>238992</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Call to Adventure</t>
+          <t>Campy Creatures</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>238992</v>
+        <v>214396</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Campy Creatures</t>
+          <t>Canopy</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>214396</v>
+        <v>295607</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Canopy</t>
+          <t>Canvas</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>295607</v>
+        <v>290236</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Canvas</t>
+          <t>Cape May</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>290236</v>
+        <v>281248</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Cape May</t>
+          <t>Caper: Europe</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>281248</v>
+        <v>328565</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Caper: Europe</t>
+          <t>Captain Sonar: Operation Dragon</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>328565</v>
+        <v>270444</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Captain Sonar: Operation Dragon</t>
+          <t>Captain Sonar: Upgrade One</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>270444</v>
+        <v>218178</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Captain Sonar: Upgrade One</t>
+          <t>Carnival Zombie: 2nd Edition</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>218178</v>
+        <v>275802</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Carnival Zombie: 2nd Edition</t>
+          <t>Carson City</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>275802</v>
+        <v>39938</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Carson City</t>
+          <t>Cartographers</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>39938</v>
+        <v>263918</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Cartographers</t>
+          <t>Cat in the Box: Deluxe Edition</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>263918</v>
+        <v>345972</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Cat in the Box: Deluxe Edition</t>
+          <t>Catacombs &amp; Castles</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>345972</v>
+        <v>194286</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Catacombs &amp; Castles</t>
+          <t>Catacombs (Third Edition)</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>194286</v>
+        <v>195137</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Catacombs (Third Edition)</t>
+          <t>Caylus 1303</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>195137</v>
+        <v>284818</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Caylus 1303</t>
+          <t>Cellulose: A Plant Cell Biology Game</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>284818</v>
+        <v>333372</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Cellulose: A Plant Cell Biology Game</t>
+          <t>Century: Golem Edition</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>333372</v>
+        <v>232832</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Century: Golem Edition</t>
+          <t>Chai</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>232832</v>
+        <v>253185</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Chai</t>
+          <t>Champions of Midgard</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>253185</v>
+        <v>172287</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Champions of Midgard</t>
+          <t>Charterstone</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>172287</v>
+        <v>197376</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Charterstone</t>
+          <t>Chocolate Factory</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>197376</v>
+        <v>240567</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Chocolate Factory</t>
+          <t>Chocolate Factory: Deluxe Edition</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>240567</v>
+        <v>329434</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Chocolate Factory: Deluxe Edition</t>
+          <t>Chomp</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>329434</v>
+        <v>377449</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Chomp</t>
+          <t>Chronicles of Drunagor: Age of Darkness</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>377449</v>
+        <v>268012</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Chronicles of Drunagor: Age of Darkness</t>
+          <t>Citadels</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>268012</v>
+        <v>205398</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Citadels</t>
+          <t>City of Gears</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>205398</v>
+        <v>131682</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>City of Gears</t>
+          <t>Clank!: Catacombs</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>131682</v>
+        <v>365717</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Clank!: Catacombs</t>
+          <t>CloudAge</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>365717</v>
+        <v>316858</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>CloudAge</t>
+          <t>Coffee Traders</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>316858</v>
+        <v>325022</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Coffee Traders</t>
+          <t>Coimbra</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>325022</v>
+        <v>245638</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Coimbra</t>
+          <t>Coloma</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>245638</v>
+        <v>264982</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Coloma</t>
+          <t>Colors of Kasane</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>264982</v>
+        <v>159355</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Colors of Kasane</t>
+          <t>Colors of Paris</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>159355</v>
+        <v>269160</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Colors of Paris</t>
+          <t>Colt Express</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>269160</v>
+        <v>158899</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Colt Express</t>
+          <t>Comanauts</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>158899</v>
+        <v>256883</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Comanauts</t>
+          <t>Conan</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>256883</v>
+        <v>160010</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Conan</t>
+          <t>Concordia</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>160010</v>
+        <v>124361</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Concordia</t>
+          <t>Confusion: Espionage and Deception in the Cold War</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>124361</v>
+        <v>2961</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Confusion: Espionage and Deception in the Cold War</t>
+          <t>Conspiracy: Abyss Universe</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>2961</v>
+        <v>276042</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Conspiracy: Abyss Universe</t>
+          <t>Conspiracy: The Solomon Gambit</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>276042</v>
+        <v>267991</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Conspiracy: The Solomon Gambit</t>
+          <t>Consumption: Food and Choices</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>267991</v>
+        <v>198517</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Consumption: Food and Choices</t>
+          <t>Cosmoctopus</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>198517</v>
+        <v>362020</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Cosmoctopus</t>
+          <t>Council of 4</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>362020</v>
+        <v>173101</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Council of 4</t>
+          <t>Counterfeiters</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>173101</v>
+        <v>257380</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Counterfeiters</t>
+          <t>Covalence: A Molecule Building Game</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>257380</v>
+        <v>184663</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Covalence: A Molecule Building Game</t>
+          <t>Crown of Emara</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>184663</v>
+        <v>256570</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Crown of Emara</t>
+          <t>Cry Havoc</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>256570</v>
+        <v>192457</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Cry Havoc</t>
+          <t>Cryptid</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>192457</v>
+        <v>246784</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Cryptid</t>
+          <t>Crystal Clans</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>246784</v>
+        <v>228133</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Crystal Clans</t>
+          <t>Cubitos</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>228133</v>
+        <v>298069</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Cubitos</t>
+          <t>Cupcake Empire</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>298069</v>
+        <v>256067</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Cupcake Empire</t>
+          <t>Cyclades</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>256067</v>
+        <v>54998</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Cyclades</t>
+          <t>Cytosis: A Cell Biology Board Game</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>54998</v>
+        <v>202977</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Cytosis: A Cell Biology Board Game</t>
+          <t>Cóatl</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>202977</v>
+        <v>274841</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Cóatl</t>
+          <t>Danger Park</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>274841</v>
+        <v>290722</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Danger Park</t>
+          <t>Darwin's Journey</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>290722</v>
+        <v>322289</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Darwin's Journey</t>
+          <t>Dead Man's Draw: Captain Carcass</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>322289</v>
+        <v>149155</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Dead Man's Draw: Captain Carcass</t>
+          <t>Dead Men Tell No Tales: The Kraken Expansion</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>149155</v>
+        <v>244532</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Dead Men Tell No Tales: The Kraken Expansion</t>
+          <t>Demon Worker</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>244532</v>
+        <v>216856</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Demon Worker</t>
+          <t>Destinies</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>216856</v>
+        <v>285192</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Destinies</t>
+          <t>Detective: A Modern Crime Board Game</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>285192</v>
+        <v>223321</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Detective: A Modern Crime Board Game</t>
+          <t>Detective: City of Angels</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>223321</v>
+        <v>218074</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Detective: City of Angels</t>
+          <t>Deus</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>218074</v>
+        <v>162082</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Deus</t>
+          <t>Dice Hospital</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>162082</v>
+        <v>218121</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Dice Hospital</t>
+          <t>Dice Manor</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>218121</v>
+        <v>368517</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Dice Manor</t>
+          <t>Dice Miner</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>368517</v>
+        <v>310632</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Dice Miner</t>
+          <t>Dice Throne: Season One</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>310632</v>
+        <v>216734</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Dice Throne: Season One</t>
+          <t>Dice Town: A Fistful of Cards</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>216734</v>
+        <v>245064</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Dice Town: A Fistful of Cards</t>
+          <t>Dice Town: Cowboys</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>245064</v>
+        <v>193211</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Dice Town: Cowboys</t>
+          <t>Dinosaur Island</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>193211</v>
+        <v>221194</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Dinosaur Island</t>
+          <t>Dinosaur Tea Party</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>221194</v>
+        <v>247160</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Dinosaur Tea Party</t>
+          <t>Disc Duelers</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>247160</v>
+        <v>141653</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Disc Duelers</t>
+          <t>Disney Animated</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>141653</v>
+        <v>382229</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Disney Animated</t>
+          <t>Disney Lorcana</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>382229</v>
+        <v>369646</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Disney Lorcana</t>
+          <t>Disney Villainous: Despicable Plots</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>369646</v>
+        <v>331050</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Disney Villainous: Despicable Plots</t>
+          <t>Disney Villainous: Evil Comes Prepared</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>331050</v>
+        <v>284760</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Disney Villainous: Evil Comes Prepared</t>
+          <t>Disney Villainous: Perfectly Wretched</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>284760</v>
+        <v>299047</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Disney Villainous: Perfectly Wretched</t>
+          <t>Disney Villainous: Wicked to the Core</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>299047</v>
+        <v>271518</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Disney Villainous: Wicked to the Core</t>
+          <t>Dive</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>271518</v>
+        <v>304324</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Dive</t>
+          <t>Dominant Species</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>304324</v>
+        <v>62219</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Dominant Species</t>
+          <t>Dominations: Dynasties</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>62219</v>
+        <v>267235</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Dominations: Dynasties</t>
+          <t>Dominations: Provinces</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>267235</v>
+        <v>267237</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Dominations: Provinces</t>
+          <t>Downforce</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>267237</v>
+        <v>215311</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Downforce</t>
+          <t>Dragon Castle</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>215311</v>
+        <v>232219</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Dragon Castle</t>
+          <t>Dragonheart</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>232219</v>
+        <v>66171</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Dragonheart</t>
+          <t>Dragonkeepers</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>66171</v>
+        <v>383109</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Dragonkeepers</t>
+          <t>Dragonscales</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>383109</v>
+        <v>283748</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Dragonscales</t>
+          <t>Dream Home: 156 Sunny Street</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>283748</v>
+        <v>232291</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Dream Home: 156 Sunny Street</t>
+          <t>Dream Runners</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>232291</v>
+        <v>301002</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Dream Runners</t>
+          <t>Dreamscape</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>301002</v>
+        <v>231038</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Dreamscape</t>
+          <t>Drum Roll</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>231038</v>
+        <v>86246</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Drum Roll</t>
+          <t>Dual Powers: Revolution 1917</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>86246</v>
+        <v>241987</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Dual Powers: Revolution 1917</t>
+          <t>Duelosaur Island</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>241987</v>
+        <v>247236</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Duelosaur Island</t>
+          <t>Dune: Imperium</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>247236</v>
+        <v>316554</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Dune: Imperium</t>
+          <t>Dungeon Draft</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>316554</v>
+        <v>219276</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Dungeon Draft</t>
+          <t>Dungeon Fighter: Collector's Edition</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>219276</v>
+        <v>334349</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Dungeon Fighter: Collector's Edition</t>
+          <t>Dungeon Fighter: Second Edition</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>334349</v>
+        <v>357028</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Dungeon Fighter: Second Edition</t>
+          <t>Dungeon Run</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>357028</v>
+        <v>66424</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Dungeon Run</t>
+          <t>Dungeons &amp; Dragons: The Yawning Portal</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>66424</v>
+        <v>367820</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Dungeons &amp; Dragons: The Yawning Portal</t>
+          <t>Dwellings of Eldervale</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>367820</v>
+        <v>271055</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Dwellings of Eldervale</t>
+          <t>Eclipse: Second Dawn for the Galaxy</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>271055</v>
+        <v>246900</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Eclipse: Second Dawn for the Galaxy</t>
+          <t>Ecos: First Continent</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>246900</v>
+        <v>279254</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Ecos: First Continent</t>
+          <t>El Grande</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>279254</v>
+        <v>93</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>El Grande</t>
+          <t>Elder Sign</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>93</v>
+        <v>100423</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Elder Sign</t>
+          <t>Eldritch Horror</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>100423</v>
+        <v>146021</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Eldritch Horror</t>
+          <t>Element</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>146021</v>
+        <v>216403</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Element</t>
+          <t>Empire's End</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>216403</v>
+        <v>356952</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Empire's End</t>
+          <t>Empires</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>356952</v>
+        <v>230590</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Empires</t>
+          <t>Enchanters</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>230590</v>
+        <v>198138</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Enchanters</t>
+          <t>Era: Medieval Age</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>198138</v>
+        <v>270971</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Era: Medieval Age</t>
+          <t>Escape Tales: The Awakening</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>270971</v>
+        <v>253214</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Escape Tales: The Awakening</t>
+          <t>Etherfields</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>253214</v>
+        <v>280794</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Etherfields</t>
+          <t>Ethnos</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>280794</v>
+        <v>206718</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Ethnos</t>
+          <t>Euphoria: Build a Better Dystopia</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>206718</v>
+        <v>133848</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Euphoria: Build a Better Dystopia</t>
+          <t>Evenfall</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>133848</v>
+        <v>396989</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Evenfall</t>
+          <t>Everdell Farshore</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>396989</v>
+        <v>394106</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Everdell Farshore</t>
+          <t>Evolution</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>394106</v>
+        <v>155703</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Evolution</t>
+          <t>Ex Libris: Expanded Archives</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>155703</v>
+        <v>392094</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Ex Libris: Expanded Archives</t>
+          <t>Ex Libris: Revised Edition</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>392094</v>
+        <v>393000</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Ex Libris: Revised Edition</t>
+          <t>Exodus: Proxima Centauri</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>393000</v>
+        <v>122842</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Exodus: Proxima Centauri</t>
+          <t>Expeditions</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>122842</v>
+        <v>379078</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Expeditions</t>
+          <t>FUSE</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>379078</v>
+        <v>171273</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>FUSE</t>
+          <t>FUSE Countdown</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>171273</v>
+        <v>369993</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>FUSE Countdown</t>
+          <t>Fall of Rome</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>369993</v>
+        <v>260428</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Fall of Rome</t>
+          <t>Faraway</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>260428</v>
+        <v>385761</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Faraway</t>
+          <t>Favor of the Pharaoh</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>385761</v>
+        <v>171011</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Favor of the Pharaoh</t>
+          <t>Firenze</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>171011</v>
+        <v>75449</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Firenze</t>
+          <t>First Class: All Aboard the Orient Express!</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>75449</v>
+        <v>206941</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>First Class: All Aboard the Orient Express!</t>
+          <t>First Martians: Adventures on the Red Planet</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>206941</v>
+        <v>192455</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>First Martians: Adventures on the Red Planet</t>
+          <t>First in Flight</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>192455</v>
+        <v>361788</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>First in Flight</t>
+          <t>Flamecraft</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>361788</v>
+        <v>336986</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Flamecraft</t>
+          <t>Flick of Faith</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>336986</v>
+        <v>281194</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Flick of Faith</t>
+          <t>Fliptown</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>281194</v>
+        <v>352418</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Fliptown</t>
+          <t>Fluff</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>352418</v>
+        <v>256701</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Fluff</t>
+          <t>Fold-it</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>256701</v>
+        <v>206844</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Fold-it</t>
+          <t>Foodies</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>206844</v>
+        <v>280896</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Foodies</t>
+          <t>For Science!</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>280896</v>
+        <v>280834</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>For Science!</t>
+          <t>Forest Shuffle</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>280834</v>
+        <v>391163</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Forest Shuffle</t>
+          <t>Forgotten Waters</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>391163</v>
+        <v>302723</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Forgotten Waters</t>
+          <t>Formula D</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>302723</v>
+        <v>37904</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Formula D</t>
+          <t>Four Gardens</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>37904</v>
+        <v>296043</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Four Gardens</t>
+          <t>Franchise</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>296043</v>
+        <v>245645</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Franchise</t>
+          <t>Freedom: The Underground Railroad</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>245645</v>
+        <v>119506</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Freedom: The Underground Railroad</t>
+          <t>Freelancers: A Crossroads Game</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>119506</v>
+        <v>383206</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Freelancers: A Crossroads Game</t>
+          <t>Fresco</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>383206</v>
+        <v>66188</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Fresco</t>
+          <t>Fury of Dracula (Third/Fourth Edition)</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>66188</v>
+        <v>181279</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Fury of Dracula (Third/Fourth Edition)</t>
+          <t>Gasha</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>181279</v>
+        <v>340899</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Gasha</t>
+          <t>Genotype: A Mendelian Genetics Game</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>340899</v>
+        <v>252752</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Genotype: A Mendelian Genetics Game</t>
+          <t>Get on Board: New York &amp; London</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>252752</v>
+        <v>347013</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Get on Board: New York &amp; London</t>
+          <t>Gizmos</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>347013</v>
+        <v>246192</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Gizmos</t>
+          <t>Glen More II: Chronicles</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>246192</v>
+        <v>265188</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Glen More II: Chronicles</t>
+          <t>Golem</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>265188</v>
+        <v>298383</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Golem</t>
+          <t>Great Western Trail (Second Edition)</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>298383</v>
+        <v>341169</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Great Western Trail (Second Edition)</t>
+          <t>Gutenberg</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>341169</v>
+        <v>339958</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Gutenberg</t>
+          <t>Gùgōng</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>339958</v>
+        <v>250458</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Gùgōng</t>
+          <t>Habitats</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>250458</v>
+        <v>200853</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Habitats</t>
+          <t>Hamburg</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>200853</v>
+        <v>314580</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Hamburg</t>
+          <t>Harvest Island</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>314580</v>
+        <v>231639</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Harvest Island</t>
+          <t>Healthy Heart Hospital</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>231639</v>
+        <v>186721</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Healthy Heart Hospital</t>
+          <t>Healthy Heart Hospital (Third Edition)</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>186721</v>
+        <v>399018</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Healthy Heart Hospital (Third Edition)</t>
+          <t>Hegemony: Lead Your Class to Victory</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>399018</v>
+        <v>321608</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Hegemony: Lead Your Class to Victory</t>
+          <t>Henhouse Havoc</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>321608</v>
+        <v>243231</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Henhouse Havoc</t>
+          <t>Heroes Welcome</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>243231</v>
+        <v>212839</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Heroes Welcome</t>
+          <t>Heroes of Land, Air &amp; Sea</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>212839</v>
+        <v>198830</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Heroes of Land, Air &amp; Sea</t>
+          <t>Heroes of Normandie</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>198830</v>
+        <v>53093</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Heroes of Normandie</t>
+          <t>Heroes of Normandie: Big Red One Edition</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>53093</v>
+        <v>319264</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Heroes of Normandie: Big Red One Edition</t>
+          <t>Hibachi</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>319264</v>
+        <v>313718</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Hibachi</t>
+          <t>Horrified</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>313718</v>
+        <v>282524</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Horrified</t>
+          <t>Horrified: American Monsters</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>282524</v>
+        <v>343562</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Horrified: American Monsters</t>
+          <t>Horrified: Greek Monsters</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>343562</v>
+        <v>397897</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Horrified: Greek Monsters</t>
+          <t>Hues and Cues</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>397897</v>
+        <v>302520</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Hues and Cues</t>
+          <t>Huns</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>302520</v>
+        <v>233973</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Huns</t>
+          <t>Icaion</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>233973</v>
+        <v>276090</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Icaion</t>
+          <t>Igloo Pop</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>276090</v>
+        <v>8668</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Igloo Pop</t>
+          <t>Illusion</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>8668</v>
+        <v>244995</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Illusion</t>
+          <t>Ilôs</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>244995</v>
+        <v>219232</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Ilôs</t>
+          <t>Imagine</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>219232</v>
+        <v>191894</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Imagine</t>
+          <t>Imperial Miners</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>191894</v>
+        <v>378758</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Imperial Miners</t>
+          <t>Imperial Settlers: 3 Is a Magic Number</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>378758</v>
+        <v>195543</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Imperial Settlers: 3 Is a Magic Number</t>
+          <t>In the Footsteps of Darwin</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>195543</v>
+        <v>376683</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>In the Footsteps of Darwin</t>
+          <t>In the Name of Odin</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>376683</v>
+        <v>184700</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>In the Name of Odin</t>
+          <t>Innovation</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>184700</v>
+        <v>63888</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Innovation</t>
+          <t>Insecta: The Ladies of Entomology</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>63888</v>
+        <v>344508</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Insecta: The Ladies of Entomology</t>
+          <t>Inventions: Evolution of Ideas</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>344508</v>
+        <v>347305</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Inventions: Evolution of Ideas</t>
+          <t>Ion: A Compound Building Game</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>347305</v>
+        <v>174611</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Ion: A Compound Building Game</t>
+          <t>Island Siege: Second Edition</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>174611</v>
+        <v>299971</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Island Siege: Second Edition</t>
+          <t>Isle of Trains: All Aboard</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>299971</v>
+        <v>355224</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Isle of Trains: All Aboard</t>
+          <t>Iwari</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>355224</v>
+        <v>270109</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Iwari</t>
+          <t>Jaipur</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>270109</v>
+        <v>54043</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Jaipur</t>
+          <t>Juicy Fruits</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>54043</v>
+        <v>325698</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Juicy Fruits</t>
+          <t>Junk Art</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>325698</v>
+        <v>193042</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Junk Art</t>
+          <t>Kabuto Sumo</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>193042</v>
+        <v>320390</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Kabuto Sumo</t>
+          <t>Kanagawa: Yokai</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>320390</v>
+        <v>264398</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Kanagawa: Yokai</t>
+          <t>Kashgar: Merchants of the Silk Road</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>264398</v>
+        <v>143175</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Kashgar: Merchants of the Silk Road</t>
+          <t>Kemet</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>143175</v>
+        <v>127023</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Kemet</t>
+          <t>Kemet: Blood and Sand</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>127023</v>
+        <v>297562</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Kemet: Blood and Sand</t>
+          <t>Kero</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>297562</v>
+        <v>222219</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Kero</t>
+          <t>Key Largo</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>222219</v>
+        <v>18289</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Key Largo</t>
+          <t>Khôra: Rise of an Empire</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>18289</v>
+        <v>299684</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Khôra: Rise of an Empire</t>
+          <t>Kids Chronicles: Quest for the Moon Stones</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>299684</v>
+        <v>340288</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Kids Chronicles: Quest for the Moon Stones</t>
+          <t>Kinfire Chronicles: Night's Fall</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>340288</v>
+        <v>364655</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Kinfire Chronicles: Night's Fall</t>
+          <t>Kingdoms</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>364655</v>
+        <v>119</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Kingdoms</t>
+          <t>Kingsburg</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>119</v>
+        <v>27162</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Kingsburg</t>
+          <t>Kingsburg (Second Edition)</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>27162</v>
+        <v>199966</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Kingsburg (Second Edition)</t>
+          <t>Kites</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>199966</v>
+        <v>348096</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Kites</t>
+          <t>Knarr</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>348096</v>
+        <v>379629</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Knarr</t>
+          <t>Kokoro: Avenue of the Kodama</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>379629</v>
+        <v>227758</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Kokoro: Avenue of the Kodama</t>
+          <t>Kryptos</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>227758</v>
+        <v>164354</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Kryptos</t>
+          <t>Kutná Hora: The City of Silver</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>164354</v>
+        <v>385610</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Kutná Hora: The City of Silver</t>
+          <t>Kōhaku</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>385610</v>
+        <v>270143</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Kōhaku</t>
+          <t>Last Message</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>270143</v>
+        <v>331059</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Last Message</t>
+          <t>Level 7 [Omega Protocol]</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>331059</v>
+        <v>137649</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Level 7 [Omega Protocol]</t>
+          <t>Libertalia: Winds of Galecrest</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>137649</v>
+        <v>356033</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Libertalia: Winds of Galecrest</t>
+          <t>Life of the Amazonia</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>356033</v>
+        <v>368305</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Life of the Amazonia</t>
+          <t>Lighthouse Run</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>368305</v>
+        <v>158971</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Lighthouse Run</t>
+          <t>Llamaland</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>158971</v>
+        <v>330038</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Llamaland</t>
+          <t>Lockup: A Roll Player Tale</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>330038</v>
+        <v>240855</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Lockup: A Roll Player Tale</t>
+          <t>Loco Momo</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>240855</v>
+        <v>317299</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Loco Momo</t>
+          <t>Long Shot: The Dice Game</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>317299</v>
+        <v>295374</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Long Shot: The Dice Game</t>
+          <t>Loony Quest: The Lost City</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>295374</v>
+        <v>191302</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Loony Quest: The Lost City</t>
+          <t>Lord of the Rings: The Confrontation</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>191302</v>
+        <v>18833</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Lord of the Rings: The Confrontation</t>
+          <t>Lost Cities</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>18833</v>
+        <v>50</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Lost Cities</t>
+          <t>Lost Legends</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>50</v>
+        <v>131891</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Lost Legends</t>
+          <t>Lost Ruins of Arnak: The Missing Expedition</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>131891</v>
+        <v>382350</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Lost Ruins of Arnak: The Missing Expedition</t>
+          <t>Magic Fold</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>382350</v>
+        <v>259551</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Magic Fold</t>
+          <t>Maglev Metro</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>259551</v>
+        <v>301257</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Maglev Metro</t>
+          <t>Majolica</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>301257</v>
+        <v>258041</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Majolica</t>
+          <t>Manhattan</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>258041</v>
+        <v>199</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Manhattan</t>
+          <t>Mansions of Madness: Second Edition – Beyond the Threshold: Expansion</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>199</v>
+        <v>210674</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Mansions of Madness: Second Edition – Beyond the Threshold: Expansion</t>
+          <t>Mansions of Madness: Second Edition – Recurring Nightmares: Figure and Tile Collection</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>210674</v>
+        <v>206547</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Mansions of Madness: Second Edition – Recurring Nightmares: Figure and Tile Collection</t>
+          <t>Mansions of Madness: Second Edition – Suppressed Memories: Figure and Tile Collection</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>206547</v>
+        <v>206548</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Mansions of Madness: Second Edition – Suppressed Memories: Figure and Tile Collection</t>
+          <t>Maracaibo</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>206548</v>
+        <v>276025</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Maracaibo</t>
+          <t>March of the Ants</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>276025</v>
+        <v>156496</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>March of the Ants</t>
+          <t>Mariposas</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>156496</v>
+        <v>297978</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Mariposas</t>
+          <t>Marvel Dice Masters: Age of Ultron – Collector's Box</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>297978</v>
+        <v>185109</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Marvel Dice Masters: Age of Ultron – Collector's Box</t>
+          <t>Marvel Dice Masters: Civil War – Collector's Box</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>185109</v>
+        <v>210876</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Marvel Dice Masters: Civil War – Collector's Box</t>
+          <t>Marvel Dice Masters: The Amazing Spider-man – Collector's Box</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>210876</v>
+        <v>196788</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Marvel Dice Masters: The Amazing Spider-man – Collector's Box</t>
+          <t>Marvel Dice Throne</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>196788</v>
+        <v>348406</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Marvel Dice Throne</t>
+          <t>Marvel United</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>348406</v>
+        <v>298047</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Marvel United</t>
+          <t>Massive Darkness</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>298047</v>
+        <v>197070</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Massive Darkness</t>
+          <t>Massive Darkness 2: Hellscape</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>197070</v>
+        <v>315610</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Massive Darkness 2: Hellscape</t>
+          <t>Meadow</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>315610</v>
+        <v>314491</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Meadow</t>
+          <t>Meeple Circus</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>314491</v>
+        <v>193214</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Meeple Circus</t>
+          <t>Meeple War</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>193214</v>
+        <v>192120</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Meeple War</t>
+          <t>Menara: Rituals &amp; Ruins</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>192120</v>
+        <v>286655</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Menara: Rituals &amp; Ruins</t>
+          <t>Merchant of Venus (Second Edition)</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>286655</v>
+        <v>131646</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Merchant of Venus (Second Edition)</t>
+          <t>Merchants Cove</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>131646</v>
+        <v>277700</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Merchants Cove</t>
+          <t>Merv: The Heart of the Silk Road</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>277700</v>
+        <v>306040</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Merv: The Heart of the Silk Road</t>
+          <t>Mice and Mystics</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>306040</v>
+        <v>124708</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Mice and Mystics</t>
+          <t>Millennium Blades</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>124708</v>
+        <v>151347</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Millennium Blades</t>
+          <t>Minute Realms</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>151347</v>
+        <v>234468</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Minute Realms</t>
+          <t>Mission Control: Critical Orbit</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>234468</v>
+        <v>360121</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Mission Control: Critical Orbit</t>
+          <t>Monumental</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>360121</v>
+        <v>248125</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Monumental</t>
+          <t>Mountain Goats</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>248125</v>
+        <v>63975</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Mountain Goats</t>
+          <t>Mountains of Madness</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>63975</v>
+        <v>214293</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Mountains of Madness</t>
+          <t>Multiuniversum</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>214293</v>
+        <v>192638</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Multiuniversum</t>
+          <t>Museum</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>192638</v>
+        <v>204505</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Museum</t>
+          <t>My Father's Work</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>204505</v>
+        <v>328866</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>My Father's Work</t>
+          <t>Mysterium: Hidden Signs</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>328866</v>
+        <v>192661</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Mysterium: Hidden Signs</t>
+          <t>Mysterium: Secrets &amp; Lies</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>192661</v>
+        <v>216465</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Mysterium: Secrets &amp; Lies</t>
+          <t>Mystery of the Abbey</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>216465</v>
+        <v>915</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Mystery of the Abbey</t>
+          <t>Mystic Vale</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>915</v>
+        <v>194607</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Mystic Vale</t>
+          <t>Mystic Vale: Essential Edition</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>194607</v>
+        <v>308762</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Mystic Vale: Essential Edition</t>
+          <t>Naga Raja</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>308762</v>
+        <v>244191</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Naga Raja</t>
+          <t>Necromolds: Monster Battles</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>244191</v>
+        <v>294986</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Necromolds: Monster Battles</t>
+          <t>Nemesis</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>294986</v>
+        <v>167355</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Nemesis</t>
+          <t>New York Zoo</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>167355</v>
+        <v>300877</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>New York Zoo</t>
+          <t>Next Station: London</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>300877</v>
+        <v>353545</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Next Station: London</t>
+          <t>Nidavellir: Thingvellir</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>353545</v>
+        <v>326984</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Nidavellir: Thingvellir</t>
+          <t>Night Parade of a Hundred Yokai</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>326984</v>
+        <v>314589</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Night Parade of a Hundred Yokai</t>
+          <t>Night of the Ninja</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>314589</v>
+        <v>306321</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Night of the Ninja</t>
+          <t>Ninjato</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>306321</v>
+        <v>50768</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Ninjato</t>
+          <t>Nippon</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>50768</v>
+        <v>154809</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Nippon</t>
+          <t>Notre Dame: 10th Anniversary</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>154809</v>
+        <v>213984</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Notre Dame: 10th Anniversary</t>
+          <t>Nova Roma</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>213984</v>
+        <v>370789</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Nova Roma</t>
+          <t>Now Boarding</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>370789</v>
+        <v>231567</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Now Boarding</t>
+          <t>Nyctophobia</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>231567</v>
+        <v>249505</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Nyctophobia</t>
+          <t>Nyet!</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>249505</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Nyet!</t>
+          <t>O Bom do Videogame</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>1107</v>
+        <v>234432</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>O Bom do Videogame</t>
+          <t>Odin's Ravens (Second Edition)</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>234432</v>
+        <v>192074</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Odin's Ravens (Second Edition)</t>
+          <t>Once Upon a Castle</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>192074</v>
+        <v>244333</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Once Upon a Castle</t>
+          <t>One Key</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>244333</v>
+        <v>263155</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>One Key</t>
+          <t>Orbis</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>263155</v>
+        <v>255507</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Orbis</t>
+          <t>Origins: First Builders</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>255507</v>
+        <v>322588</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Origins: First Builders</t>
+          <t>Otys</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>322588</v>
+        <v>222542</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Otys</t>
+          <t>PARKS</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>222542</v>
+        <v>266524</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>PARKS</t>
+          <t>Pack &amp; Stack</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>266524</v>
+        <v>37120</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Pack &amp; Stack</t>
+          <t>Paleo</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>37120</v>
+        <v>300531</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Paleo</t>
+          <t>Pandemic Legacy: Season 1</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>300531</v>
+        <v>161936</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Pandemic Legacy: Season 1</t>
+          <t>Pandemic Legacy: Season 2</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>161936</v>
+        <v>221107</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Pandemic Legacy: Season 2</t>
+          <t>Pandoria</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>221107</v>
+        <v>248167</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Pandoria</t>
+          <t>Paper Dungeons: A Dungeon Scrawler Game</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>248167</v>
+        <v>291962</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Paper Dungeons: A Dungeon Scrawler Game</t>
+          <t>Paper Tales</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>291962</v>
+        <v>217861</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Paper Tales</t>
+          <t>Papà Paolo</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>217861</v>
+        <v>195867</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Papà Paolo</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>195867</v>
+        <v>282954</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Paris</t>
+          <t>Paris: La Cité de la Lumière</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>282954</v>
+        <v>276498</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Paris: La Cité de la Lumière</t>
+          <t>Patchwork</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>276498</v>
+        <v>163412</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Patchwork</t>
+          <t>Pelican Cove</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>163412</v>
+        <v>90870</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Pelican Cove</t>
+          <t>Pharaon</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>90870</v>
+        <v>282414</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Pharaon</t>
+          <t>Pile-Up Rush</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>282414</v>
+        <v>220707</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Pile-Up Rush</t>
+          <t>Pioneer Rails</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>220707</v>
+        <v>362164</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Pioneer Rails</t>
+          <t>Pirates of the 7 Seas</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>362164</v>
+        <v>172613</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Pirates of the 7 Seas</t>
+          <t>Planet</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>172613</v>
+        <v>252929</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Planet</t>
+          <t>Potion Explosion</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>252929</v>
+        <v>180974</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Potion Explosion</t>
+          <t>Project: ELITE</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>180974</v>
+        <v>256999</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Project: ELITE</t>
+          <t>Prêt-à-Porter</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>256999</v>
+        <v>87890</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Prêt-à-Porter</t>
+          <t>Pyramid Poker</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>87890</v>
+        <v>213953</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Pyramid Poker</t>
+          <t>QE</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>213953</v>
+        <v>266830</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>QE</t>
+          <t>Quantum</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>266830</v>
+        <v>143519</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Quantum</t>
+          <t>Queen's Necklace</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>143519</v>
+        <v>6068</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Queen's Necklace</t>
+          <t>Quodd Heroes</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>6068</v>
+        <v>207991</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Quodd Heroes</t>
+          <t>Radlands</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>207991</v>
+        <v>329082</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Radlands</t>
+          <t>Raiatea</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>329082</v>
+        <v>256728</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Raiatea</t>
+          <t>Raiders of Scythia</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>256728</v>
+        <v>301880</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Raiders of Scythia</t>
+          <t>Raiders of the North Sea</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>301880</v>
+        <v>170042</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Raiders of the North Sea</t>
+          <t>Raids</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>170042</v>
+        <v>234429</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Raids</t>
+          <t>Raptor</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>234429</v>
+        <v>177639</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Raptor</t>
+          <t>Ready Set Bet</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>177639</v>
+        <v>351040</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Ready Set Bet</t>
+          <t>Realm of Sand</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>351040</v>
+        <v>256623</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Realm of Sand</t>
+          <t>Rear Window</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>256623</v>
+        <v>358816</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Rear Window</t>
+          <t>Res Arcana: Perlae Imperii</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>358816</v>
+        <v>340375</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>Res Arcana: Perlae Imperii</t>
+          <t>Return to Dark Tower</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>340375</v>
+        <v>256680</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Return to Dark Tower</t>
+          <t>Riftforce</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>256680</v>
+        <v>291859</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>Riftforce</t>
+          <t>Rivals for Catan</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>291859</v>
+        <v>66056</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>Rivals for Catan</t>
+          <t>Roar: King of the Pride</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>66056</v>
+        <v>237229</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>Roar: King of the Pride</t>
+          <t>Robin of Locksley</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>237229</v>
+        <v>280132</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>Robin of Locksley</t>
+          <t>Robot Quest Arena</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>280132</v>
+        <v>304668</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Robot Quest Arena</t>
+          <t>Rococo: Jewelry Box</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>304668</v>
+        <v>176990</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>Rococo: Jewelry Box</t>
+          <t>Roll Player Adventures</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>176990</v>
+        <v>254708</v>
       </c>
     </row>
     <row r="406">
@@ -5938,260 +5938,250 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>Virtù</t>
+          <t>VivaJava: The Coffee Game: The Dice Game</t>
         </is>
       </c>
       <c r="B551" t="n">
-        <v>345377</v>
+        <v>139899</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>VivaJava: The Coffee Game: The Dice Game</t>
+          <t>Vivarium</t>
         </is>
       </c>
       <c r="B552" t="n">
-        <v>139899</v>
+        <v>361240</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>Vivarium</t>
+          <t>Voices In My Head</t>
         </is>
       </c>
       <c r="B553" t="n">
-        <v>361240</v>
+        <v>354254</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Voices In My Head</t>
+          <t>Votes for Women</t>
         </is>
       </c>
       <c r="B554" t="n">
-        <v>354254</v>
+        <v>311900</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>Votes for Women</t>
+          <t>War Chest</t>
         </is>
       </c>
       <c r="B555" t="n">
-        <v>311900</v>
+        <v>249259</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>War Chest</t>
+          <t>Watergate</t>
         </is>
       </c>
       <c r="B556" t="n">
-        <v>249259</v>
+        <v>274364</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>Watergate</t>
+          <t>Waters of Nereus</t>
         </is>
       </c>
       <c r="B557" t="n">
-        <v>274364</v>
+        <v>234578</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>Waters of Nereus</t>
+          <t>Wavelength</t>
         </is>
       </c>
       <c r="B558" t="n">
-        <v>234578</v>
+        <v>262543</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Wavelength</t>
+          <t>Welcome To...</t>
         </is>
       </c>
       <c r="B559" t="n">
-        <v>262543</v>
+        <v>233867</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>Welcome To...</t>
+          <t>Welcome To...: Collector's Edition</t>
         </is>
       </c>
       <c r="B560" t="n">
-        <v>233867</v>
+        <v>392449</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>Welcome To...: Collector's Edition</t>
+          <t>Welcome to Dino World</t>
         </is>
       </c>
       <c r="B561" t="n">
-        <v>392449</v>
+        <v>232524</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>Welcome to Dino World</t>
+          <t>Western Legends</t>
         </is>
       </c>
       <c r="B562" t="n">
-        <v>232524</v>
+        <v>232405</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>Western Legends</t>
+          <t>When I Dream</t>
         </is>
       </c>
       <c r="B563" t="n">
-        <v>232405</v>
+        <v>198454</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>When I Dream</t>
+          <t>Wildlands</t>
         </is>
       </c>
       <c r="B564" t="n">
-        <v>198454</v>
+        <v>244654</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>Wildlands</t>
+          <t>Winner's Circle</t>
         </is>
       </c>
       <c r="B565" t="n">
-        <v>244654</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>Winner's Circle</t>
+          <t>World Wonders</t>
         </is>
       </c>
       <c r="B566" t="n">
-        <v>1382</v>
+        <v>365258</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>World Wonders</t>
+          <t>Wreck Raiders</t>
         </is>
       </c>
       <c r="B567" t="n">
-        <v>365258</v>
+        <v>252877</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>Wreck Raiders</t>
+          <t>Xi'an</t>
         </is>
       </c>
       <c r="B568" t="n">
-        <v>252877</v>
+        <v>234828</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>Xi'an</t>
+          <t>Xia: Legends of a Drift System</t>
         </is>
       </c>
       <c r="B569" t="n">
-        <v>234828</v>
+        <v>82222</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>Xia: Legends of a Drift System</t>
+          <t>Yamatai</t>
         </is>
       </c>
       <c r="B570" t="n">
-        <v>82222</v>
+        <v>213893</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>Yamatai</t>
+          <t>Yedo</t>
         </is>
       </c>
       <c r="B571" t="n">
-        <v>213893</v>
+        <v>117915</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>Yedo</t>
+          <t>Zendo</t>
         </is>
       </c>
       <c r="B572" t="n">
-        <v>117915</v>
+        <v>6830</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>Zendo</t>
+          <t>Zombicide: Black Plague</t>
         </is>
       </c>
       <c r="B573" t="n">
-        <v>6830</v>
+        <v>176189</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>Zombicide: Black Plague</t>
+          <t>Zooloretto</t>
         </is>
       </c>
       <c r="B574" t="n">
-        <v>176189</v>
+        <v>27588</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>Zooloretto</t>
+          <t>Évora</t>
         </is>
       </c>
       <c r="B575" t="n">
-        <v>27588</v>
-      </c>
-    </row>
-    <row r="576">
-      <c r="A576" t="inlineStr">
-        <is>
-          <t>Évora</t>
-        </is>
-      </c>
-      <c r="B576" t="n">
         <v>339753</v>
       </c>
     </row>
